--- a/src/other/GeneratedLevel3DownFront.xlsx
+++ b/src/other/GeneratedLevel3DownFront.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FRC2019\projects\FRC_2019\src\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12107DA3-DA8D-4524-B9DA-132F4E649E02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A907D-6FCB-4751-805F-202E132A8493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2103,184 +2103,184 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>2.9928571428571433</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="184">
                   <c:v>2.9821428571428572</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="185">
                   <c:v>2.9678571428571434</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
                   <c:v>2.9499999999999997</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="187">
                   <c:v>2.9285714285714284</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="188">
                   <c:v>2.9035714285714285</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="189">
                   <c:v>2.875</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="190">
                   <c:v>2.842857142857143</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="191">
                   <c:v>2.8071428571428569</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="192">
                   <c:v>2.7678571428571432</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="193">
                   <c:v>2.7250000000000001</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="194">
                   <c:v>2.6785714285714279</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="195">
                   <c:v>2.6285714285714281</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="196">
                   <c:v>2.5749999999999993</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="197">
                   <c:v>2.5178571428571423</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="198">
                   <c:v>2.4571428571428564</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="199">
                   <c:v>2.3928571428571423</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="200">
                   <c:v>2.3249999999999993</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="201">
                   <c:v>2.2535714285714281</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="202">
                   <c:v>2.1785714285714279</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="203">
                   <c:v>2.1035714285714282</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="204">
                   <c:v>2.0285714285714276</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="205">
                   <c:v>1.9535714285714276</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="206">
                   <c:v>1.8785714285714272</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="207">
                   <c:v>1.8035714285714275</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="208">
                   <c:v>1.7285714285714278</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="209">
                   <c:v>1.6535714285714274</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="210">
                   <c:v>1.5785714285714274</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="211">
                   <c:v>1.5035714285714268</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="212">
                   <c:v>1.4285714285714273</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="213">
                   <c:v>1.3535714285714273</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="214">
                   <c:v>1.2785714285714271</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="215">
                   <c:v>1.203571428571427</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="216">
                   <c:v>1.128571428571427</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="217">
                   <c:v>1.053571428571427</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="218">
                   <c:v>0.97857142857142687</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="219">
                   <c:v>0.90357142857142703</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="220">
                   <c:v>0.82857142857142696</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="221">
                   <c:v>0.75357142857142689</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="222">
                   <c:v>0.67857142857142705</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="223">
                   <c:v>0.61071428571428443</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="224">
                   <c:v>0.54642857142856993</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="225">
                   <c:v>0.48571428571428432</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="226">
                   <c:v>0.42857142857142722</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="227">
                   <c:v>0.37499999999999878</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="228">
                   <c:v>0.32499999999999885</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="229">
                   <c:v>0.27857142857142747</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="230">
                   <c:v>0.23571428571428477</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="231">
                   <c:v>0.19642857142857051</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="232">
                   <c:v>0.16071428571428495</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="233">
                   <c:v>0.12857142857142786</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="234">
                   <c:v>9.9999999999999367E-2</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="235">
                   <c:v>7.4999999999999484E-2</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="236">
                   <c:v>5.3571428571428131E-2</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="237">
                   <c:v>3.5714285714285372E-2</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="238">
                   <c:v>2.1428571428571172E-2</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="239">
                   <c:v>1.0714285714285541E-2</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="240">
                   <c:v>3.571428571428485E-3</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>0</c:v>
@@ -4402,187 +4402,187 @@
                   <c:v>4.5285714285714205</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.5585357142857061</c:v>
+                  <c:v>4.5585714285714207</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.5884107142857058</c:v>
+                  <c:v>4.588571428571421</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.6181607142857057</c:v>
+                  <c:v>4.6185357142857066</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.6477499999999914</c:v>
+                  <c:v>4.6484107142857063</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.6771428571428482</c:v>
+                  <c:v>4.6781607142857062</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.7063035714285624</c:v>
+                  <c:v>4.7077499999999919</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4.7351964285714194</c:v>
+                  <c:v>4.7371428571428487</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4.7637857142857047</c:v>
+                  <c:v>4.7663035714285629</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4.7920357142857046</c:v>
+                  <c:v>4.7951964285714199</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4.8199107142857045</c:v>
+                  <c:v>4.8237857142857052</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4.8473749999999907</c:v>
+                  <c:v>4.8520357142857051</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4.8743928571428476</c:v>
+                  <c:v>4.879910714285705</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4.9009285714285618</c:v>
+                  <c:v>4.9073749999999912</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4.9269464285714193</c:v>
+                  <c:v>4.9343928571428481</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4.9524107142857048</c:v>
+                  <c:v>4.9609285714285623</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4.9772857142857045</c:v>
+                  <c:v>4.9869464285714198</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5.0015357142857049</c:v>
+                  <c:v>5.0124107142857053</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.0251249999999903</c:v>
+                  <c:v>5.037285714285705</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5.0480178571428471</c:v>
+                  <c:v>5.0615357142857054</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5.0701785714285617</c:v>
+                  <c:v>5.0851249999999908</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5.0915892857142762</c:v>
+                  <c:v>5.1080178571428476</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5.1122499999999906</c:v>
+                  <c:v>5.1301785714285622</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5.1321607142857051</c:v>
+                  <c:v>5.1515892857142767</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5.1513214285714195</c:v>
+                  <c:v>5.1722499999999911</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5.1697321428571339</c:v>
+                  <c:v>5.1921607142857056</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5.1873928571428483</c:v>
+                  <c:v>5.21132142857142</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5.2043035714285626</c:v>
+                  <c:v>5.2297321428571344</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5.2204642857142769</c:v>
+                  <c:v>5.2473928571428488</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5.2358749999999912</c:v>
+                  <c:v>5.2643035714285631</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5.2505357142857054</c:v>
+                  <c:v>5.2804642857142774</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5.2644464285714196</c:v>
+                  <c:v>5.2958749999999917</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5.2776071428571338</c:v>
+                  <c:v>5.3105357142857059</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5.290017857142848</c:v>
+                  <c:v>5.3244464285714201</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5.3016785714285621</c:v>
+                  <c:v>5.3376071428571343</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5.3125892857142762</c:v>
+                  <c:v>5.3500178571428485</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5.3227499999999903</c:v>
+                  <c:v>5.3616785714285626</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5.3321607142857044</c:v>
+                  <c:v>5.3725892857142767</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5.3408214285714184</c:v>
+                  <c:v>5.3827499999999908</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5.3487321428571324</c:v>
+                  <c:v>5.3921607142857049</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5.3558928571428464</c:v>
+                  <c:v>5.4008214285714189</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5.3623392857142749</c:v>
+                  <c:v>5.4087321428571329</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5.3681249999999894</c:v>
+                  <c:v>5.4158928571428469</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>5.3732857142857036</c:v>
+                  <c:v>5.4223392857142754</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>5.377857142857132</c:v>
+                  <c:v>5.4281249999999899</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>5.3818749999999893</c:v>
+                  <c:v>5.4332857142857041</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>5.3853749999999891</c:v>
+                  <c:v>5.4378571428571325</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>5.3883928571428461</c:v>
+                  <c:v>5.4418749999999898</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>5.3909642857142748</c:v>
+                  <c:v>5.4453749999999896</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>5.3931249999999888</c:v>
+                  <c:v>5.4483928571428466</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>5.3949107142857029</c:v>
+                  <c:v>5.4509642857142753</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>5.3963571428571315</c:v>
+                  <c:v>5.4531249999999893</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>5.3974999999999884</c:v>
+                  <c:v>5.4549107142857034</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>5.3983749999999882</c:v>
+                  <c:v>5.456357142857132</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>5.3990178571428453</c:v>
+                  <c:v>5.4574999999999889</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>5.3994642857142736</c:v>
+                  <c:v>5.4583749999999887</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>5.3997499999999876</c:v>
+                  <c:v>5.4590178571428458</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>5.3999107142857019</c:v>
+                  <c:v>5.4594642857142741</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>5.3999821428571302</c:v>
+                  <c:v>5.4597499999999881</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>5.399999999999987</c:v>
+                  <c:v>5.4599107142857024</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>5.4599821428571307</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>5.4599999999999875</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>0</c:v>
@@ -6701,187 +6701,187 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>-0.71428571428566734</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="184">
                   <c:v>-1.071428571428612</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="185">
                   <c:v>-1.4285714285713791</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
                   <c:v>-1.7857142857143682</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="187">
                   <c:v>-2.1428571428571352</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="188">
                   <c:v>-2.4999999999999911</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="189">
                   <c:v>-2.857142857142847</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="190">
                   <c:v>-3.2142857142857029</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="191">
                   <c:v>-3.5714285714286031</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="192">
                   <c:v>-3.9285714285713702</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="193">
                   <c:v>-4.2857142857143149</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="194">
                   <c:v>-4.6428571428572152</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="195">
                   <c:v>-4.9999999999999822</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="196">
                   <c:v>-5.3571428571428825</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="197">
                   <c:v>-5.714285714285694</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="198">
                   <c:v>-6.0714285714285943</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="199">
                   <c:v>-6.4285714285714057</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="200">
                   <c:v>-6.785714285714306</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="201">
                   <c:v>-7.1428571428571175</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="202">
                   <c:v>-7.5000000000000178</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="203">
                   <c:v>-7.4999999999999734</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="204">
                   <c:v>-7.5000000000000622</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="205">
                   <c:v>-7.4999999999999956</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="206">
                   <c:v>-7.50000000000004</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="207">
                   <c:v>-7.4999999999999734</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="208">
                   <c:v>-7.4999999999999734</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="209">
                   <c:v>-7.50000000000004</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="210">
                   <c:v>-7.4999999999999956</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="211">
                   <c:v>-7.5000000000000622</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="212">
                   <c:v>-7.4999999999999512</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="213">
                   <c:v>-7.4999999999999956</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="214">
                   <c:v>-7.5000000000000178</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="215">
                   <c:v>-7.5000000000000178</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="216">
                   <c:v>-7.4999999999999956</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="217">
                   <c:v>-7.4999999999999956</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="218">
                   <c:v>-7.5000000000000178</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="219">
                   <c:v>-7.499999999999984</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="220">
                   <c:v>-7.5000000000000062</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="221">
                   <c:v>-7.5000000000000062</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="222">
                   <c:v>-7.499999999999984</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="223">
                   <c:v>-6.7857142857142616</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="224">
                   <c:v>-6.4285714285714501</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="225">
                   <c:v>-6.0714285714285605</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="226">
                   <c:v>-5.7142857142857109</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="227">
                   <c:v>-5.3571428571428434</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="228">
                   <c:v>-4.9999999999999929</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="229">
                   <c:v>-4.642857142857137</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="230">
                   <c:v>-4.2857142857142705</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="231">
                   <c:v>-3.9285714285714257</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="232">
                   <c:v>-3.5714285714285561</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="233">
                   <c:v>-3.2142857142857082</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="234">
                   <c:v>-2.8571428571428497</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="235">
                   <c:v>-2.4999999999999885</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="236">
                   <c:v>-2.1428571428571352</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="237">
                   <c:v>-1.7857142857142758</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="238">
                   <c:v>-1.4285714285714199</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="239">
                   <c:v>-1.0714285714285632</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="240">
                   <c:v>-0.71428571428570553</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="241">
                   <c:v>-0.35714285714284849</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>0</c:v>
@@ -7756,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C8" s="1">
         <f>(Dist/Vprog)*1000</f>
-        <v>1800</v>
+        <v>1816.6666666666667</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="C11" s="1">
         <f>Time4/itp</f>
-        <v>180</v>
+        <v>181.66666666666669</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -16880,15 +16880,15 @@
       </c>
       <c r="D207" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" s="6">
         <f t="shared" si="4"/>
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
       <c r="F207" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.975000000000001</v>
+        <v>20</v>
       </c>
       <c r="G207" s="6">
         <f t="shared" si="0"/>
@@ -16900,15 +16900,15 @@
       </c>
       <c r="I207" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9928571428571433</v>
+        <v>3</v>
       </c>
       <c r="J207" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5585357142857061</v>
+        <v>4.5585714285714207</v>
       </c>
       <c r="K207" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-0.71428571428566734</v>
+        <v>0</v>
       </c>
       <c r="L207" s="6" t="b">
         <v>0</v>
@@ -16929,15 +16929,15 @@
       </c>
       <c r="D208" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" s="6">
         <f t="shared" si="4"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F208" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.925000000000001</v>
+        <v>20</v>
       </c>
       <c r="G208" s="6">
         <f t="shared" si="0"/>
@@ -16949,15 +16949,15 @@
       </c>
       <c r="I208" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9821428571428572</v>
+        <v>3</v>
       </c>
       <c r="J208" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.5884107142857058</v>
+        <v>4.588571428571421</v>
       </c>
       <c r="K208" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.071428571428612</v>
+        <v>0</v>
       </c>
       <c r="L208" s="6" t="b">
         <v>0</v>
@@ -16982,11 +16982,11 @@
       </c>
       <c r="E209" s="6">
         <f t="shared" si="4"/>
-        <v>0.92499999999999993</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="F209" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.850000000000001</v>
+        <v>19.975000000000001</v>
       </c>
       <c r="G209" s="6">
         <f t="shared" si="0"/>
@@ -16998,15 +16998,15 @@
       </c>
       <c r="I209" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9678571428571434</v>
+        <v>2.9928571428571433</v>
       </c>
       <c r="J209" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6181607142857057</v>
+        <v>4.6185357142857066</v>
       </c>
       <c r="K209" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.4285714285713791</v>
+        <v>-0.71428571428566734</v>
       </c>
       <c r="L209" s="6" t="b">
         <v>0</v>
@@ -17031,11 +17031,11 @@
       </c>
       <c r="E210" s="6">
         <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
+        <v>0.95</v>
       </c>
       <c r="F210" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.75</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="G210" s="6">
         <f t="shared" si="0"/>
@@ -17047,15 +17047,15 @@
       </c>
       <c r="I210" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9499999999999997</v>
+        <v>2.9821428571428572</v>
       </c>
       <c r="J210" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6477499999999914</v>
+        <v>4.6484107142857063</v>
       </c>
       <c r="K210" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-1.7857142857143682</v>
+        <v>-1.071428571428612</v>
       </c>
       <c r="L210" s="6" t="b">
         <v>0</v>
@@ -17080,11 +17080,11 @@
       </c>
       <c r="E211" s="6">
         <f t="shared" si="4"/>
-        <v>0.87499999999999989</v>
+        <v>0.92499999999999993</v>
       </c>
       <c r="F211" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.625</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="G211" s="6">
         <f t="shared" si="0"/>
@@ -17096,15 +17096,15 @@
       </c>
       <c r="I211" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9285714285714284</v>
+        <v>2.9678571428571434</v>
       </c>
       <c r="J211" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6771428571428482</v>
+        <v>4.6781607142857062</v>
       </c>
       <c r="K211" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.1428571428571352</v>
+        <v>-1.4285714285713791</v>
       </c>
       <c r="L211" s="6" t="b">
         <v>0</v>
@@ -17129,11 +17129,11 @@
       </c>
       <c r="E212" s="6">
         <f t="shared" si="4"/>
-        <v>0.84999999999999987</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F212" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.474999999999998</v>
+        <v>19.75</v>
       </c>
       <c r="G212" s="6">
         <f t="shared" si="0"/>
@@ -17145,15 +17145,15 @@
       </c>
       <c r="I212" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9035714285714285</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="J212" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7063035714285624</v>
+        <v>4.7077499999999919</v>
       </c>
       <c r="K212" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.4999999999999911</v>
+        <v>-1.7857142857143682</v>
       </c>
       <c r="L212" s="6" t="b">
         <v>0</v>
@@ -17178,11 +17178,11 @@
       </c>
       <c r="E213" s="6">
         <f t="shared" si="4"/>
-        <v>0.82499999999999984</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="F213" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.3</v>
+        <v>19.625</v>
       </c>
       <c r="G213" s="6">
         <f t="shared" si="0"/>
@@ -17194,15 +17194,15 @@
       </c>
       <c r="I213" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.875</v>
+        <v>2.9285714285714284</v>
       </c>
       <c r="J213" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7351964285714194</v>
+        <v>4.7371428571428487</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-2.857142857142847</v>
+        <v>-2.1428571428571352</v>
       </c>
       <c r="L213" s="6" t="b">
         <v>0</v>
@@ -17227,11 +17227,11 @@
       </c>
       <c r="E214" s="6">
         <f t="shared" si="4"/>
-        <v>0.79999999999999982</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="F214" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19.100000000000001</v>
+        <v>19.474999999999998</v>
       </c>
       <c r="G214" s="6">
         <f t="shared" si="0"/>
@@ -17243,15 +17243,15 @@
       </c>
       <c r="I214" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.842857142857143</v>
+        <v>2.9035714285714285</v>
       </c>
       <c r="J214" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7637857142857047</v>
+        <v>4.7663035714285629</v>
       </c>
       <c r="K214" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.2142857142857029</v>
+        <v>-2.4999999999999911</v>
       </c>
       <c r="L214" s="6" t="b">
         <v>0</v>
@@ -17276,11 +17276,11 @@
       </c>
       <c r="E215" s="6">
         <f t="shared" si="4"/>
-        <v>0.7749999999999998</v>
+        <v>0.82499999999999984</v>
       </c>
       <c r="F215" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>18.875</v>
+        <v>19.3</v>
       </c>
       <c r="G215" s="6">
         <f t="shared" si="0"/>
@@ -17292,15 +17292,15 @@
       </c>
       <c r="I215" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.8071428571428569</v>
+        <v>2.875</v>
       </c>
       <c r="J215" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.7920357142857046</v>
+        <v>4.7951964285714199</v>
       </c>
       <c r="K215" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.5714285714286031</v>
+        <v>-2.857142857142847</v>
       </c>
       <c r="L215" s="6" t="b">
         <v>0</v>
@@ -17325,11 +17325,11 @@
       </c>
       <c r="E216" s="6">
         <f t="shared" si="4"/>
-        <v>0.74999999999999978</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="F216" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>18.625</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G216" s="6">
         <f t="shared" si="0"/>
@@ -17341,15 +17341,15 @@
       </c>
       <c r="I216" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7678571428571432</v>
+        <v>2.842857142857143</v>
       </c>
       <c r="J216" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8199107142857045</v>
+        <v>4.8237857142857052</v>
       </c>
       <c r="K216" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-3.9285714285713702</v>
+        <v>-3.2142857142857029</v>
       </c>
       <c r="L216" s="6" t="b">
         <v>0</v>
@@ -17374,11 +17374,11 @@
       </c>
       <c r="E217" s="6">
         <f t="shared" si="4"/>
-        <v>0.72499999999999976</v>
+        <v>0.7749999999999998</v>
       </c>
       <c r="F217" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>18.349999999999998</v>
+        <v>18.875</v>
       </c>
       <c r="G217" s="6">
         <f t="shared" si="0"/>
@@ -17390,15 +17390,15 @@
       </c>
       <c r="I217" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7250000000000001</v>
+        <v>2.8071428571428569</v>
       </c>
       <c r="J217" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8473749999999907</v>
+        <v>4.8520357142857051</v>
       </c>
       <c r="K217" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.2857142857143149</v>
+        <v>-3.5714285714286031</v>
       </c>
       <c r="L217" s="6" t="b">
         <v>0</v>
@@ -17423,11 +17423,11 @@
       </c>
       <c r="E218" s="6">
         <f t="shared" si="4"/>
-        <v>0.69999999999999973</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="F218" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>18.049999999999997</v>
+        <v>18.625</v>
       </c>
       <c r="G218" s="6">
         <f t="shared" si="0"/>
@@ -17439,15 +17439,15 @@
       </c>
       <c r="I218" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2.6785714285714279</v>
+        <v>2.7678571428571432</v>
       </c>
       <c r="J218" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>4.8743928571428476</v>
+        <v>4.879910714285705</v>
       </c>
       <c r="K218" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>-4.6428571428572152</v>
+        <v>-3.9285714285713702</v>
       </c>
       <c r="L218" s="6" t="b">
         <v>0</v>
@@ -17472,11 +17472,11 @@
       </c>
       <c r="E219" s="6">
         <f t="shared" si="4"/>
-        <v>0.67499999999999971</v>
+        <v>0.72499999999999976</v>
       </c>
       <c r="F219" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>17.724999999999998</v>
+        <v>18.349999999999998</v>
       </c>
       <c r="G219" s="6">
         <f t="shared" si="0"/>
@@ -17488,15 +17488,15 @@
       </c>
       <c r="I219" s="6">
         <f t="shared" ref="I219:I282" ca="1" si="20">IF(H219,   ((E219+F219)/(1+$C$10))*Vprog,  "")</f>
-        <v>2.6285714285714281</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="J219" s="6">
         <f t="shared" ref="J219:J282" ca="1" si="21">IF(H219,  ((((I219+I218)/2)*itp)/1000)+J218,"")</f>
-        <v>4.9009285714285618</v>
+        <v>4.9073749999999912</v>
       </c>
       <c r="K219" s="6">
         <f t="shared" ref="K219:K282" ca="1" si="22">IF(H219,     (I219-I218)/(itp/1000),     "")</f>
-        <v>-4.9999999999999822</v>
+        <v>-4.2857142857143149</v>
       </c>
       <c r="L219" s="6" t="b">
         <v>0</v>
@@ -17521,11 +17521,11 @@
       </c>
       <c r="E220" s="6">
         <f t="shared" si="4"/>
-        <v>0.64999999999999969</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="F220" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>17.374999999999996</v>
+        <v>18.049999999999997</v>
       </c>
       <c r="G220" s="6">
         <f t="shared" si="0"/>
@@ -17537,15 +17537,15 @@
       </c>
       <c r="I220" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.5749999999999993</v>
+        <v>2.6785714285714279</v>
       </c>
       <c r="J220" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>4.9269464285714193</v>
+        <v>4.9343928571428481</v>
       </c>
       <c r="K220" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.3571428571428825</v>
+        <v>-4.6428571428572152</v>
       </c>
       <c r="L220" s="6" t="b">
         <v>0</v>
@@ -17570,11 +17570,11 @@
       </c>
       <c r="E221" s="6">
         <f t="shared" si="4"/>
-        <v>0.62499999999999967</v>
+        <v>0.67499999999999971</v>
       </c>
       <c r="F221" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>16.999999999999996</v>
+        <v>17.724999999999998</v>
       </c>
       <c r="G221" s="6">
         <f t="shared" si="0"/>
@@ -17586,15 +17586,15 @@
       </c>
       <c r="I221" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.5178571428571423</v>
+        <v>2.6285714285714281</v>
       </c>
       <c r="J221" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>4.9524107142857048</v>
+        <v>4.9609285714285623</v>
       </c>
       <c r="K221" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.714285714285694</v>
+        <v>-4.9999999999999822</v>
       </c>
       <c r="L221" s="6" t="b">
         <v>0</v>
@@ -17619,11 +17619,11 @@
       </c>
       <c r="E222" s="6">
         <f t="shared" si="4"/>
-        <v>0.59999999999999964</v>
+        <v>0.64999999999999969</v>
       </c>
       <c r="F222" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>16.599999999999994</v>
+        <v>17.374999999999996</v>
       </c>
       <c r="G222" s="6">
         <f t="shared" si="0"/>
@@ -17635,15 +17635,15 @@
       </c>
       <c r="I222" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.4571428571428564</v>
+        <v>2.5749999999999993</v>
       </c>
       <c r="J222" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>4.9772857142857045</v>
+        <v>4.9869464285714198</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.0714285714285943</v>
+        <v>-5.3571428571428825</v>
       </c>
       <c r="L222" s="6" t="b">
         <v>0</v>
@@ -17668,11 +17668,11 @@
       </c>
       <c r="E223" s="6">
         <f t="shared" si="4"/>
-        <v>0.57499999999999962</v>
+        <v>0.62499999999999967</v>
       </c>
       <c r="F223" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>16.174999999999997</v>
+        <v>16.999999999999996</v>
       </c>
       <c r="G223" s="6">
         <f t="shared" si="0"/>
@@ -17684,15 +17684,15 @@
       </c>
       <c r="I223" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3928571428571423</v>
+        <v>2.5178571428571423</v>
       </c>
       <c r="J223" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.0015357142857049</v>
+        <v>5.0124107142857053</v>
       </c>
       <c r="K223" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.4285714285714057</v>
+        <v>-5.714285714285694</v>
       </c>
       <c r="L223" s="6" t="b">
         <v>0</v>
@@ -17717,11 +17717,11 @@
       </c>
       <c r="E224" s="6">
         <f t="shared" si="4"/>
-        <v>0.5499999999999996</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="F224" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>15.724999999999994</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="G224" s="6">
         <f t="shared" si="0"/>
@@ -17733,15 +17733,15 @@
       </c>
       <c r="I224" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3249999999999993</v>
+        <v>2.4571428571428564</v>
       </c>
       <c r="J224" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.0251249999999903</v>
+        <v>5.037285714285705</v>
       </c>
       <c r="K224" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.785714285714306</v>
+        <v>-6.0714285714285943</v>
       </c>
       <c r="L224" s="6" t="b">
         <v>0</v>
@@ -17766,11 +17766,11 @@
       </c>
       <c r="E225" s="6">
         <f t="shared" si="4"/>
-        <v>0.52499999999999958</v>
+        <v>0.57499999999999962</v>
       </c>
       <c r="F225" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>15.249999999999996</v>
+        <v>16.174999999999997</v>
       </c>
       <c r="G225" s="6">
         <f t="shared" si="0"/>
@@ -17782,15 +17782,15 @@
       </c>
       <c r="I225" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.2535714285714281</v>
+        <v>2.3928571428571423</v>
       </c>
       <c r="J225" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.0480178571428471</v>
+        <v>5.0615357142857054</v>
       </c>
       <c r="K225" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.1428571428571175</v>
+        <v>-6.4285714285714057</v>
       </c>
       <c r="L225" s="6" t="b">
         <v>0</v>
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E226" s="6">
         <f t="shared" si="4"/>
-        <v>0.49999999999999956</v>
+        <v>0.5499999999999996</v>
       </c>
       <c r="F226" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>14.749999999999995</v>
+        <v>15.724999999999994</v>
       </c>
       <c r="G226" s="6">
         <f t="shared" si="0"/>
@@ -17831,15 +17831,15 @@
       </c>
       <c r="I226" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1785714285714279</v>
+        <v>2.3249999999999993</v>
       </c>
       <c r="J226" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.0701785714285617</v>
+        <v>5.0851249999999908</v>
       </c>
       <c r="K226" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000178</v>
+        <v>-6.785714285714306</v>
       </c>
       <c r="L226" s="6" t="b">
         <v>0</v>
@@ -17864,11 +17864,11 @@
       </c>
       <c r="E227" s="6">
         <f t="shared" si="4"/>
-        <v>0.47499999999999953</v>
+        <v>0.52499999999999958</v>
       </c>
       <c r="F227" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>14.249999999999996</v>
+        <v>15.249999999999996</v>
       </c>
       <c r="G227" s="6">
         <f t="shared" si="0"/>
@@ -17880,15 +17880,15 @@
       </c>
       <c r="I227" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1035714285714282</v>
+        <v>2.2535714285714281</v>
       </c>
       <c r="J227" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.0915892857142762</v>
+        <v>5.1080178571428476</v>
       </c>
       <c r="K227" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999734</v>
+        <v>-7.1428571428571175</v>
       </c>
       <c r="L227" s="6" t="b">
         <v>0</v>
@@ -17913,11 +17913,11 @@
       </c>
       <c r="E228" s="6">
         <f t="shared" si="4"/>
-        <v>0.44999999999999951</v>
+        <v>0.49999999999999956</v>
       </c>
       <c r="F228" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>13.749999999999995</v>
+        <v>14.749999999999995</v>
       </c>
       <c r="G228" s="6">
         <f t="shared" si="0"/>
@@ -17929,15 +17929,15 @@
       </c>
       <c r="I228" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.0285714285714276</v>
+        <v>2.1785714285714279</v>
       </c>
       <c r="J228" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1122499999999906</v>
+        <v>5.1301785714285622</v>
       </c>
       <c r="K228" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000622</v>
+        <v>-7.5000000000000178</v>
       </c>
       <c r="L228" s="6" t="b">
         <v>0</v>
@@ -17962,11 +17962,11 @@
       </c>
       <c r="E229" s="6">
         <f t="shared" si="4"/>
-        <v>0.42499999999999949</v>
+        <v>0.47499999999999953</v>
       </c>
       <c r="F229" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>13.249999999999995</v>
+        <v>14.249999999999996</v>
       </c>
       <c r="G229" s="6">
         <f t="shared" si="0"/>
@@ -17978,15 +17978,15 @@
       </c>
       <c r="I229" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.9535714285714276</v>
+        <v>2.1035714285714282</v>
       </c>
       <c r="J229" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1321607142857051</v>
+        <v>5.1515892857142767</v>
       </c>
       <c r="K229" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999956</v>
+        <v>-7.4999999999999734</v>
       </c>
       <c r="L229" s="6" t="b">
         <v>0</v>
@@ -18011,11 +18011,11 @@
       </c>
       <c r="E230" s="6">
         <f t="shared" si="4"/>
-        <v>0.39999999999999947</v>
+        <v>0.44999999999999951</v>
       </c>
       <c r="F230" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>12.749999999999993</v>
+        <v>13.749999999999995</v>
       </c>
       <c r="G230" s="6">
         <f t="shared" si="0"/>
@@ -18027,15 +18027,15 @@
       </c>
       <c r="I230" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.8785714285714272</v>
+        <v>2.0285714285714276</v>
       </c>
       <c r="J230" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1513214285714195</v>
+        <v>5.1722499999999911</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.50000000000004</v>
+        <v>-7.5000000000000622</v>
       </c>
       <c r="L230" s="6" t="b">
         <v>0</v>
@@ -18060,11 +18060,11 @@
       </c>
       <c r="E231" s="6">
         <f t="shared" si="4"/>
-        <v>0.37499999999999944</v>
+        <v>0.42499999999999949</v>
       </c>
       <c r="F231" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>12.249999999999993</v>
+        <v>13.249999999999995</v>
       </c>
       <c r="G231" s="6">
         <f t="shared" si="0"/>
@@ -18076,15 +18076,15 @@
       </c>
       <c r="I231" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.8035714285714275</v>
+        <v>1.9535714285714276</v>
       </c>
       <c r="J231" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1697321428571339</v>
+        <v>5.1921607142857056</v>
       </c>
       <c r="K231" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999734</v>
+        <v>-7.4999999999999956</v>
       </c>
       <c r="L231" s="6" t="b">
         <v>0</v>
@@ -18109,11 +18109,11 @@
       </c>
       <c r="E232" s="6">
         <f t="shared" si="4"/>
-        <v>0.34999999999999942</v>
+        <v>0.39999999999999947</v>
       </c>
       <c r="F232" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>11.749999999999995</v>
+        <v>12.749999999999993</v>
       </c>
       <c r="G232" s="6">
         <f t="shared" si="0"/>
@@ -18125,15 +18125,15 @@
       </c>
       <c r="I232" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.7285714285714278</v>
+        <v>1.8785714285714272</v>
       </c>
       <c r="J232" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1873928571428483</v>
+        <v>5.21132142857142</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999734</v>
+        <v>-7.50000000000004</v>
       </c>
       <c r="L232" s="6" t="b">
         <v>0</v>
@@ -18158,11 +18158,11 @@
       </c>
       <c r="E233" s="6">
         <f t="shared" si="4"/>
-        <v>0.3249999999999994</v>
+        <v>0.37499999999999944</v>
       </c>
       <c r="F233" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>11.249999999999991</v>
+        <v>12.249999999999993</v>
       </c>
       <c r="G233" s="6">
         <f t="shared" si="0"/>
@@ -18174,15 +18174,15 @@
       </c>
       <c r="I233" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.6535714285714274</v>
+        <v>1.8035714285714275</v>
       </c>
       <c r="J233" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2043035714285626</v>
+        <v>5.2297321428571344</v>
       </c>
       <c r="K233" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.50000000000004</v>
+        <v>-7.4999999999999734</v>
       </c>
       <c r="L233" s="6" t="b">
         <v>0</v>
@@ -18207,11 +18207,11 @@
       </c>
       <c r="E234" s="6">
         <f t="shared" si="4"/>
-        <v>0.29999999999999938</v>
+        <v>0.34999999999999942</v>
       </c>
       <c r="F234" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>10.749999999999993</v>
+        <v>11.749999999999995</v>
       </c>
       <c r="G234" s="6">
         <f t="shared" si="0"/>
@@ -18223,15 +18223,15 @@
       </c>
       <c r="I234" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.5785714285714274</v>
+        <v>1.7285714285714278</v>
       </c>
       <c r="J234" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2204642857142769</v>
+        <v>5.2473928571428488</v>
       </c>
       <c r="K234" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999956</v>
+        <v>-7.4999999999999734</v>
       </c>
       <c r="L234" s="6" t="b">
         <v>0</v>
@@ -18256,11 +18256,11 @@
       </c>
       <c r="E235" s="6">
         <f t="shared" si="4"/>
-        <v>0.27499999999999936</v>
+        <v>0.3249999999999994</v>
       </c>
       <c r="F235" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>10.249999999999989</v>
+        <v>11.249999999999991</v>
       </c>
       <c r="G235" s="6">
         <f t="shared" si="0"/>
@@ -18272,15 +18272,15 @@
       </c>
       <c r="I235" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.5035714285714268</v>
+        <v>1.6535714285714274</v>
       </c>
       <c r="J235" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2358749999999912</v>
+        <v>5.2643035714285631</v>
       </c>
       <c r="K235" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000622</v>
+        <v>-7.50000000000004</v>
       </c>
       <c r="L235" s="6" t="b">
         <v>0</v>
@@ -18305,11 +18305,11 @@
       </c>
       <c r="E236" s="6">
         <f t="shared" si="4"/>
-        <v>0.24999999999999936</v>
+        <v>0.29999999999999938</v>
       </c>
       <c r="F236" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7499999999999911</v>
+        <v>10.749999999999993</v>
       </c>
       <c r="G236" s="6">
         <f t="shared" si="0"/>
@@ -18321,15 +18321,15 @@
       </c>
       <c r="I236" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.4285714285714273</v>
+        <v>1.5785714285714274</v>
       </c>
       <c r="J236" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2505357142857054</v>
+        <v>5.2804642857142774</v>
       </c>
       <c r="K236" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999512</v>
+        <v>-7.4999999999999956</v>
       </c>
       <c r="L236" s="6" t="b">
         <v>0</v>
@@ -18354,11 +18354,11 @@
       </c>
       <c r="E237" s="6">
         <f t="shared" si="4"/>
-        <v>0.22499999999999937</v>
+        <v>0.27499999999999936</v>
       </c>
       <c r="F237" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2499999999999911</v>
+        <v>10.249999999999989</v>
       </c>
       <c r="G237" s="6">
         <f t="shared" si="0"/>
@@ -18370,15 +18370,15 @@
       </c>
       <c r="I237" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.3535714285714273</v>
+        <v>1.5035714285714268</v>
       </c>
       <c r="J237" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2644464285714196</v>
+        <v>5.2958749999999917</v>
       </c>
       <c r="K237" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999956</v>
+        <v>-7.5000000000000622</v>
       </c>
       <c r="L237" s="6" t="b">
         <v>0</v>
@@ -18403,11 +18403,11 @@
       </c>
       <c r="E238" s="6">
         <f t="shared" si="4"/>
-        <v>0.19999999999999937</v>
+        <v>0.24999999999999936</v>
       </c>
       <c r="F238" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7499999999999911</v>
+        <v>9.7499999999999911</v>
       </c>
       <c r="G238" s="6">
         <f t="shared" si="0"/>
@@ -18419,15 +18419,15 @@
       </c>
       <c r="I238" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2785714285714271</v>
+        <v>1.4285714285714273</v>
       </c>
       <c r="J238" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2776071428571338</v>
+        <v>5.3105357142857059</v>
       </c>
       <c r="K238" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000178</v>
+        <v>-7.4999999999999512</v>
       </c>
       <c r="L238" s="6" t="b">
         <v>0</v>
@@ -18452,11 +18452,11 @@
       </c>
       <c r="E239" s="6">
         <f t="shared" si="4"/>
-        <v>0.17499999999999938</v>
+        <v>0.22499999999999937</v>
       </c>
       <c r="F239" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2499999999999893</v>
+        <v>9.2499999999999911</v>
       </c>
       <c r="G239" s="6">
         <f t="shared" si="0"/>
@@ -18468,15 +18468,15 @@
       </c>
       <c r="I239" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.203571428571427</v>
+        <v>1.3535714285714273</v>
       </c>
       <c r="J239" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.290017857142848</v>
+        <v>5.3244464285714201</v>
       </c>
       <c r="K239" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000178</v>
+        <v>-7.4999999999999956</v>
       </c>
       <c r="L239" s="6" t="b">
         <v>0</v>
@@ -18501,11 +18501,11 @@
       </c>
       <c r="E240" s="6">
         <f t="shared" si="4"/>
-        <v>0.14999999999999938</v>
+        <v>0.19999999999999937</v>
       </c>
       <c r="F240" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7499999999999902</v>
+        <v>8.7499999999999911</v>
       </c>
       <c r="G240" s="6">
         <f t="shared" si="0"/>
@@ -18517,15 +18517,15 @@
       </c>
       <c r="I240" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.128571428571427</v>
+        <v>1.2785714285714271</v>
       </c>
       <c r="J240" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3016785714285621</v>
+        <v>5.3376071428571343</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999956</v>
+        <v>-7.5000000000000178</v>
       </c>
       <c r="L240" s="6" t="b">
         <v>0</v>
@@ -18550,11 +18550,11 @@
       </c>
       <c r="E241" s="6">
         <f t="shared" si="4"/>
-        <v>0.12499999999999939</v>
+        <v>0.17499999999999938</v>
       </c>
       <c r="F241" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2499999999999893</v>
+        <v>8.2499999999999893</v>
       </c>
       <c r="G241" s="6">
         <f t="shared" si="0"/>
@@ -18566,15 +18566,15 @@
       </c>
       <c r="I241" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.053571428571427</v>
+        <v>1.203571428571427</v>
       </c>
       <c r="J241" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3125892857142762</v>
+        <v>5.3500178571428485</v>
       </c>
       <c r="K241" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4999999999999956</v>
+        <v>-7.5000000000000178</v>
       </c>
       <c r="L241" s="6" t="b">
         <v>0</v>
@@ -18599,11 +18599,11 @@
       </c>
       <c r="E242" s="6">
         <f t="shared" si="4"/>
-        <v>9.9999999999999395E-2</v>
+        <v>0.14999999999999938</v>
       </c>
       <c r="F242" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7499999999999893</v>
+        <v>7.7499999999999902</v>
       </c>
       <c r="G242" s="6">
         <f t="shared" si="0"/>
@@ -18615,15 +18615,15 @@
       </c>
       <c r="I242" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.97857142857142687</v>
+        <v>1.128571428571427</v>
       </c>
       <c r="J242" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3227499999999903</v>
+        <v>5.3616785714285626</v>
       </c>
       <c r="K242" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000178</v>
+        <v>-7.4999999999999956</v>
       </c>
       <c r="L242" s="6" t="b">
         <v>0</v>
@@ -18648,11 +18648,11 @@
       </c>
       <c r="E243" s="6">
         <f t="shared" si="4"/>
-        <v>7.49999999999994E-2</v>
+        <v>0.12499999999999939</v>
       </c>
       <c r="F243" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2499999999999893</v>
+        <v>7.2499999999999893</v>
       </c>
       <c r="G243" s="6">
         <f t="shared" si="0"/>
@@ -18664,15 +18664,15 @@
       </c>
       <c r="I243" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.90357142857142703</v>
+        <v>1.053571428571427</v>
       </c>
       <c r="J243" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3321607142857044</v>
+        <v>5.3725892857142767</v>
       </c>
       <c r="K243" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.499999999999984</v>
+        <v>-7.4999999999999956</v>
       </c>
       <c r="L243" s="6" t="b">
         <v>0</v>
@@ -18697,11 +18697,11 @@
       </c>
       <c r="E244" s="6">
         <f t="shared" si="4"/>
-        <v>4.9999999999999399E-2</v>
+        <v>9.9999999999999395E-2</v>
       </c>
       <c r="F244" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7499999999999885</v>
+        <v>6.7499999999999893</v>
       </c>
       <c r="G244" s="6">
         <f t="shared" si="0"/>
@@ -18713,15 +18713,15 @@
       </c>
       <c r="I244" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.82857142857142696</v>
+        <v>0.97857142857142687</v>
       </c>
       <c r="J244" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3408214285714184</v>
+        <v>5.3827499999999908</v>
       </c>
       <c r="K244" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000062</v>
+        <v>-7.5000000000000178</v>
       </c>
       <c r="L244" s="6" t="b">
         <v>0</v>
@@ -18746,11 +18746,11 @@
       </c>
       <c r="E245" s="6">
         <f t="shared" si="4"/>
-        <v>2.4999999999999398E-2</v>
+        <v>7.49999999999994E-2</v>
       </c>
       <c r="F245" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2499999999999893</v>
+        <v>6.2499999999999893</v>
       </c>
       <c r="G245" s="6">
         <f t="shared" si="0"/>
@@ -18762,15 +18762,15 @@
       </c>
       <c r="I245" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.75357142857142689</v>
+        <v>0.90357142857142703</v>
       </c>
       <c r="J245" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3487321428571324</v>
+        <v>5.3921607142857049</v>
       </c>
       <c r="K245" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.5000000000000062</v>
+        <v>-7.499999999999984</v>
       </c>
       <c r="L245" s="6" t="b">
         <v>0</v>
@@ -18795,37 +18795,37 @@
       </c>
       <c r="E246" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999399E-2</v>
       </c>
       <c r="F246" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7499999999999893</v>
+        <v>5.7499999999999885</v>
       </c>
       <c r="G246" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H246" s="6" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I246" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.67857142857142705</v>
+        <v>0.82857142857142696</v>
       </c>
       <c r="J246" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3558928571428464</v>
+        <v>5.4008214285714189</v>
       </c>
       <c r="K246" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.499999999999984</v>
+        <v>-7.5000000000000062</v>
       </c>
       <c r="L246" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M246" s="6" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -18844,37 +18844,37 @@
       </c>
       <c r="E247" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4999999999999398E-2</v>
       </c>
       <c r="F247" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2749999999999906</v>
+        <v>5.2499999999999893</v>
       </c>
       <c r="G247" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H247" s="6" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I247" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.61071428571428443</v>
+        <v>0.75357142857142689</v>
       </c>
       <c r="J247" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3623392857142749</v>
+        <v>5.4087321428571329</v>
       </c>
       <c r="K247" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.7857142857142616</v>
+        <v>-7.5000000000000062</v>
       </c>
       <c r="L247" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M247" s="6" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="F248" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.82499999999999</v>
+        <v>4.7499999999999893</v>
       </c>
       <c r="G248" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -18909,15 +18909,15 @@
       </c>
       <c r="I248" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.54642857142856993</v>
+        <v>0.67857142857142705</v>
       </c>
       <c r="J248" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3681249999999894</v>
+        <v>5.4158928571428469</v>
       </c>
       <c r="K248" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.4285714285714501</v>
+        <v>-7.499999999999984</v>
       </c>
       <c r="L248" s="6" t="b">
         <v>0</v>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="F249" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3999999999999901</v>
+        <v>4.2749999999999906</v>
       </c>
       <c r="G249" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -18958,15 +18958,15 @@
       </c>
       <c r="I249" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.48571428571428432</v>
+        <v>0.61071428571428443</v>
       </c>
       <c r="J249" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3732857142857036</v>
+        <v>5.4223392857142754</v>
       </c>
       <c r="K249" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.0714285714285605</v>
+        <v>-6.7857142857142616</v>
       </c>
       <c r="L249" s="6" t="b">
         <v>0</v>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="F250" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9999999999999907</v>
+        <v>3.82499999999999</v>
       </c>
       <c r="G250" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19007,15 +19007,15 @@
       </c>
       <c r="I250" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.42857142857142722</v>
+        <v>0.54642857142856993</v>
       </c>
       <c r="J250" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.377857142857132</v>
+        <v>5.4281249999999899</v>
       </c>
       <c r="K250" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.7142857142857109</v>
+        <v>-6.4285714285714501</v>
       </c>
       <c r="L250" s="6" t="b">
         <v>0</v>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="F251" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6249999999999916</v>
+        <v>3.3999999999999901</v>
       </c>
       <c r="G251" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19056,15 +19056,15 @@
       </c>
       <c r="I251" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.37499999999999878</v>
+        <v>0.48571428571428432</v>
       </c>
       <c r="J251" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3818749999999893</v>
+        <v>5.4332857142857041</v>
       </c>
       <c r="K251" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.3571428571428434</v>
+        <v>-6.0714285714285605</v>
       </c>
       <c r="L251" s="6" t="b">
         <v>0</v>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="F252" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2749999999999919</v>
+        <v>2.9999999999999907</v>
       </c>
       <c r="G252" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19105,15 +19105,15 @@
       </c>
       <c r="I252" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.32499999999999885</v>
+        <v>0.42857142857142722</v>
       </c>
       <c r="J252" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3853749999999891</v>
+        <v>5.4378571428571325</v>
       </c>
       <c r="K252" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.9999999999999929</v>
+        <v>-5.7142857142857109</v>
       </c>
       <c r="L252" s="6" t="b">
         <v>0</v>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="F253" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9499999999999926</v>
+        <v>2.6249999999999916</v>
       </c>
       <c r="G253" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19154,15 +19154,15 @@
       </c>
       <c r="I253" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.27857142857142747</v>
+        <v>0.37499999999999878</v>
       </c>
       <c r="J253" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3883928571428461</v>
+        <v>5.4418749999999898</v>
       </c>
       <c r="K253" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.642857142857137</v>
+        <v>-5.3571428571428434</v>
       </c>
       <c r="L253" s="6" t="b">
         <v>0</v>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="F254" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6499999999999932</v>
+        <v>2.2749999999999919</v>
       </c>
       <c r="G254" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19203,15 +19203,15 @@
       </c>
       <c r="I254" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.23571428571428477</v>
+        <v>0.32499999999999885</v>
       </c>
       <c r="J254" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3909642857142748</v>
+        <v>5.4453749999999896</v>
       </c>
       <c r="K254" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.2857142857142705</v>
+        <v>-4.9999999999999929</v>
       </c>
       <c r="L254" s="6" t="b">
         <v>0</v>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="F255" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3749999999999938</v>
+        <v>1.9499999999999926</v>
       </c>
       <c r="G255" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19252,15 +19252,15 @@
       </c>
       <c r="I255" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.19642857142857051</v>
+        <v>0.27857142857142747</v>
       </c>
       <c r="J255" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3931249999999888</v>
+        <v>5.4483928571428466</v>
       </c>
       <c r="K255" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.9285714285714257</v>
+        <v>-4.642857142857137</v>
       </c>
       <c r="L255" s="6" t="b">
         <v>0</v>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="F256" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1249999999999947</v>
+        <v>1.6499999999999932</v>
       </c>
       <c r="G256" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19301,15 +19301,15 @@
       </c>
       <c r="I256" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.16071428571428495</v>
+        <v>0.23571428571428477</v>
       </c>
       <c r="J256" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3949107142857029</v>
+        <v>5.4509642857142753</v>
       </c>
       <c r="K256" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.5714285714285561</v>
+        <v>-4.2857142857142705</v>
       </c>
       <c r="L256" s="6" t="b">
         <v>0</v>
@@ -19338,7 +19338,7 @@
       </c>
       <c r="F257" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89999999999999503</v>
+        <v>1.3749999999999938</v>
       </c>
       <c r="G257" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19350,15 +19350,15 @@
       </c>
       <c r="I257" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0.12857142857142786</v>
+        <v>0.19642857142857051</v>
       </c>
       <c r="J257" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3963571428571315</v>
+        <v>5.4531249999999893</v>
       </c>
       <c r="K257" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-3.2142857142857082</v>
+        <v>-3.9285714285714257</v>
       </c>
       <c r="L257" s="6" t="b">
         <v>0</v>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="F258" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69999999999999563</v>
+        <v>1.1249999999999947</v>
       </c>
       <c r="G258" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19399,15 +19399,15 @@
       </c>
       <c r="I258" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>9.9999999999999367E-2</v>
+        <v>0.16071428571428495</v>
       </c>
       <c r="J258" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3974999999999884</v>
+        <v>5.4549107142857034</v>
       </c>
       <c r="K258" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.8571428571428497</v>
+        <v>-3.5714285714285561</v>
       </c>
       <c r="L258" s="6" t="b">
         <v>0</v>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="F259" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52499999999999636</v>
+        <v>0.89999999999999503</v>
       </c>
       <c r="G259" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19448,15 +19448,15 @@
       </c>
       <c r="I259" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>7.4999999999999484E-2</v>
+        <v>0.12857142857142786</v>
       </c>
       <c r="J259" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3983749999999882</v>
+        <v>5.456357142857132</v>
       </c>
       <c r="K259" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.4999999999999885</v>
+        <v>-3.2142857142857082</v>
       </c>
       <c r="L259" s="6" t="b">
         <v>0</v>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="F260" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37499999999999695</v>
+        <v>0.69999999999999563</v>
       </c>
       <c r="G260" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19497,15 +19497,15 @@
       </c>
       <c r="I260" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>5.3571428571428131E-2</v>
+        <v>9.9999999999999367E-2</v>
       </c>
       <c r="J260" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3990178571428453</v>
+        <v>5.4574999999999889</v>
       </c>
       <c r="K260" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.1428571428571352</v>
+        <v>-2.8571428571428497</v>
       </c>
       <c r="L260" s="6" t="b">
         <v>0</v>
@@ -19534,7 +19534,7 @@
       </c>
       <c r="F261" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24999999999999761</v>
+        <v>0.52499999999999636</v>
       </c>
       <c r="G261" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19546,15 +19546,15 @@
       </c>
       <c r="I261" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>3.5714285714285372E-2</v>
+        <v>7.4999999999999484E-2</v>
       </c>
       <c r="J261" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3994642857142736</v>
+        <v>5.4583749999999887</v>
       </c>
       <c r="K261" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.7857142857142758</v>
+        <v>-2.4999999999999885</v>
       </c>
       <c r="L261" s="6" t="b">
         <v>0</v>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="F262" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14999999999999819</v>
+        <v>0.37499999999999695</v>
       </c>
       <c r="G262" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19595,15 +19595,15 @@
       </c>
       <c r="I262" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1428571428571172E-2</v>
+        <v>5.3571428571428131E-2</v>
       </c>
       <c r="J262" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3997499999999876</v>
+        <v>5.4590178571428458</v>
       </c>
       <c r="K262" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.4285714285714199</v>
+        <v>-2.1428571428571352</v>
       </c>
       <c r="L262" s="6" t="b">
         <v>0</v>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="F263" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.499999999999879E-2</v>
+        <v>0.24999999999999761</v>
       </c>
       <c r="G263" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19644,15 +19644,15 @@
       </c>
       <c r="I263" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>1.0714285714285541E-2</v>
+        <v>3.5714285714285372E-2</v>
       </c>
       <c r="J263" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3999107142857019</v>
+        <v>5.4594642857142741</v>
       </c>
       <c r="K263" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.0714285714285632</v>
+        <v>-1.7857142857142758</v>
       </c>
       <c r="L263" s="6" t="b">
         <v>0</v>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="F264" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4999999999999398E-2</v>
+        <v>0.14999999999999819</v>
       </c>
       <c r="G264" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -19693,15 +19693,15 @@
       </c>
       <c r="I264" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>3.571428571428485E-3</v>
+        <v>2.1428571428571172E-2</v>
       </c>
       <c r="J264" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.3999821428571302</v>
+        <v>5.4597499999999881</v>
       </c>
       <c r="K264" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.71428571428570553</v>
+        <v>-1.4285714285714199</v>
       </c>
       <c r="L264" s="6" t="b">
         <v>0</v>
@@ -19730,11 +19730,11 @@
       </c>
       <c r="F265" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7.499999999999879E-2</v>
       </c>
       <c r="G265" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265" s="6" t="b">
         <f t="shared" ca="1" si="1"/>
@@ -19742,22 +19742,22 @@
       </c>
       <c r="I265" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1.0714285714285541E-2</v>
       </c>
       <c r="J265" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.399999999999987</v>
+        <v>5.4599107142857024</v>
       </c>
       <c r="K265" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.35714285714284849</v>
+        <v>-1.0714285714285632</v>
       </c>
       <c r="L265" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M265" s="6" t="b">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19779,27 +19779,27 @@
       </c>
       <c r="F266" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2.4999999999999398E-2</v>
       </c>
       <c r="G266" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266" s="6" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I266" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I266" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="J266" s="6" t="str">
+        <v>3.571428571428485E-3</v>
+      </c>
+      <c r="J266" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K266" s="6" t="str">
+        <v>5.4599821428571307</v>
+      </c>
+      <c r="K266" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>-0.71428571428570553</v>
       </c>
       <c r="L266" s="6" t="b">
         <v>0</v>
@@ -19836,26 +19836,26 @@
       </c>
       <c r="H267" s="6" t="b">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I267" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I267" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="J267" s="6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K267" s="6" t="str">
+        <v>5.4599999999999875</v>
+      </c>
+      <c r="K267" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v/>
+        <v>-0.35714285714284849</v>
       </c>
       <c r="L267" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M267" s="6" t="b">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30175,11 +30175,11 @@
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H207, Step1_GenProfile!J207&amp;",","")</f>
-        <v>4.55853571428571,</v>
+        <v>4.55857142857142,</v>
       </c>
       <c r="B184" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H207, Step1_GenProfile!I207&amp;",","")</f>
-        <v>2.99285714285714,</v>
+        <v>3,</v>
       </c>
       <c r="C184" s="10" t="str">
         <f>IF(Step1_GenProfile!H207, itp&amp;",", "")</f>
@@ -30189,11 +30189,11 @@
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H208, Step1_GenProfile!J208&amp;",","")</f>
-        <v>4.58841071428571,</v>
+        <v>4.58857142857142,</v>
       </c>
       <c r="B185" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H208, Step1_GenProfile!I208&amp;",","")</f>
-        <v>2.98214285714286,</v>
+        <v>3,</v>
       </c>
       <c r="C185" s="10" t="str">
         <f>IF(Step1_GenProfile!H208, itp&amp;",", "")</f>
@@ -30203,11 +30203,11 @@
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H209, Step1_GenProfile!J209&amp;",","")</f>
-        <v>4.61816071428571,</v>
+        <v>4.61853571428571,</v>
       </c>
       <c r="B186" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H209, Step1_GenProfile!I209&amp;",","")</f>
-        <v>2.96785714285714,</v>
+        <v>2.99285714285714,</v>
       </c>
       <c r="C186" s="10" t="str">
         <f>IF(Step1_GenProfile!H209, itp&amp;",", "")</f>
@@ -30217,11 +30217,11 @@
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H210, Step1_GenProfile!J210&amp;",","")</f>
-        <v>4.64774999999999,</v>
+        <v>4.64841071428571,</v>
       </c>
       <c r="B187" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H210, Step1_GenProfile!I210&amp;",","")</f>
-        <v>2.95,</v>
+        <v>2.98214285714286,</v>
       </c>
       <c r="C187" s="10" t="str">
         <f>IF(Step1_GenProfile!H210, itp&amp;",", "")</f>
@@ -30231,11 +30231,11 @@
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H211, Step1_GenProfile!J211&amp;",","")</f>
-        <v>4.67714285714285,</v>
+        <v>4.67816071428571,</v>
       </c>
       <c r="B188" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H211, Step1_GenProfile!I211&amp;",","")</f>
-        <v>2.92857142857143,</v>
+        <v>2.96785714285714,</v>
       </c>
       <c r="C188" s="10" t="str">
         <f>IF(Step1_GenProfile!H211, itp&amp;",", "")</f>
@@ -30245,11 +30245,11 @@
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H212, Step1_GenProfile!J212&amp;",","")</f>
-        <v>4.70630357142856,</v>
+        <v>4.70774999999999,</v>
       </c>
       <c r="B189" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H212, Step1_GenProfile!I212&amp;",","")</f>
-        <v>2.90357142857143,</v>
+        <v>2.95,</v>
       </c>
       <c r="C189" s="10" t="str">
         <f>IF(Step1_GenProfile!H212, itp&amp;",", "")</f>
@@ -30259,11 +30259,11 @@
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H213, Step1_GenProfile!J213&amp;",","")</f>
-        <v>4.73519642857142,</v>
+        <v>4.73714285714285,</v>
       </c>
       <c r="B190" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H213, Step1_GenProfile!I213&amp;",","")</f>
-        <v>2.875,</v>
+        <v>2.92857142857143,</v>
       </c>
       <c r="C190" s="10" t="str">
         <f>IF(Step1_GenProfile!H213, itp&amp;",", "")</f>
@@ -30273,11 +30273,11 @@
     <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H214, Step1_GenProfile!J214&amp;",","")</f>
-        <v>4.7637857142857,</v>
+        <v>4.76630357142856,</v>
       </c>
       <c r="B191" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H214, Step1_GenProfile!I214&amp;",","")</f>
-        <v>2.84285714285714,</v>
+        <v>2.90357142857143,</v>
       </c>
       <c r="C191" s="10" t="str">
         <f>IF(Step1_GenProfile!H214, itp&amp;",", "")</f>
@@ -30287,11 +30287,11 @@
     <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H215, Step1_GenProfile!J215&amp;",","")</f>
-        <v>4.7920357142857,</v>
+        <v>4.79519642857142,</v>
       </c>
       <c r="B192" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H215, Step1_GenProfile!I215&amp;",","")</f>
-        <v>2.80714285714286,</v>
+        <v>2.875,</v>
       </c>
       <c r="C192" s="10" t="str">
         <f>IF(Step1_GenProfile!H215, itp&amp;",", "")</f>
@@ -30301,11 +30301,11 @@
     <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H216, Step1_GenProfile!J216&amp;",","")</f>
-        <v>4.8199107142857,</v>
+        <v>4.82378571428571,</v>
       </c>
       <c r="B193" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H216, Step1_GenProfile!I216&amp;",","")</f>
-        <v>2.76785714285714,</v>
+        <v>2.84285714285714,</v>
       </c>
       <c r="C193" s="10" t="str">
         <f>IF(Step1_GenProfile!H216, itp&amp;",", "")</f>
@@ -30315,11 +30315,11 @@
     <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H217, Step1_GenProfile!J217&amp;",","")</f>
-        <v>4.84737499999999,</v>
+        <v>4.85203571428571,</v>
       </c>
       <c r="B194" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H217, Step1_GenProfile!I217&amp;",","")</f>
-        <v>2.725,</v>
+        <v>2.80714285714286,</v>
       </c>
       <c r="C194" s="10" t="str">
         <f>IF(Step1_GenProfile!H217, itp&amp;",", "")</f>
@@ -30329,11 +30329,11 @@
     <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H218, Step1_GenProfile!J218&amp;",","")</f>
-        <v>4.87439285714285,</v>
+        <v>4.8799107142857,</v>
       </c>
       <c r="B195" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H218, Step1_GenProfile!I218&amp;",","")</f>
-        <v>2.67857142857143,</v>
+        <v>2.76785714285714,</v>
       </c>
       <c r="C195" s="10" t="str">
         <f>IF(Step1_GenProfile!H218, itp&amp;",", "")</f>
@@ -30343,11 +30343,11 @@
     <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H219, Step1_GenProfile!J219&amp;",","")</f>
-        <v>4.90092857142856,</v>
+        <v>4.90737499999999,</v>
       </c>
       <c r="B196" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H219, Step1_GenProfile!I219&amp;",","")</f>
-        <v>2.62857142857143,</v>
+        <v>2.725,</v>
       </c>
       <c r="C196" s="10" t="str">
         <f>IF(Step1_GenProfile!H219, itp&amp;",", "")</f>
@@ -30357,11 +30357,11 @@
     <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H220, Step1_GenProfile!J220&amp;",","")</f>
-        <v>4.92694642857142,</v>
+        <v>4.93439285714285,</v>
       </c>
       <c r="B197" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H220, Step1_GenProfile!I220&amp;",","")</f>
-        <v>2.575,</v>
+        <v>2.67857142857143,</v>
       </c>
       <c r="C197" s="10" t="str">
         <f>IF(Step1_GenProfile!H220, itp&amp;",", "")</f>
@@ -30371,11 +30371,11 @@
     <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H221, Step1_GenProfile!J221&amp;",","")</f>
-        <v>4.9524107142857,</v>
+        <v>4.96092857142856,</v>
       </c>
       <c r="B198" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H221, Step1_GenProfile!I221&amp;",","")</f>
-        <v>2.51785714285714,</v>
+        <v>2.62857142857143,</v>
       </c>
       <c r="C198" s="10" t="str">
         <f>IF(Step1_GenProfile!H221, itp&amp;",", "")</f>
@@ -30385,11 +30385,11 @@
     <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H222, Step1_GenProfile!J222&amp;",","")</f>
-        <v>4.9772857142857,</v>
+        <v>4.98694642857142,</v>
       </c>
       <c r="B199" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H222, Step1_GenProfile!I222&amp;",","")</f>
-        <v>2.45714285714286,</v>
+        <v>2.575,</v>
       </c>
       <c r="C199" s="10" t="str">
         <f>IF(Step1_GenProfile!H222, itp&amp;",", "")</f>
@@ -30399,11 +30399,11 @@
     <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H223, Step1_GenProfile!J223&amp;",","")</f>
-        <v>5.0015357142857,</v>
+        <v>5.01241071428571,</v>
       </c>
       <c r="B200" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H223, Step1_GenProfile!I223&amp;",","")</f>
-        <v>2.39285714285714,</v>
+        <v>2.51785714285714,</v>
       </c>
       <c r="C200" s="10" t="str">
         <f>IF(Step1_GenProfile!H223, itp&amp;",", "")</f>
@@ -30413,11 +30413,11 @@
     <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H224, Step1_GenProfile!J224&amp;",","")</f>
-        <v>5.02512499999999,</v>
+        <v>5.03728571428571,</v>
       </c>
       <c r="B201" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H224, Step1_GenProfile!I224&amp;",","")</f>
-        <v>2.325,</v>
+        <v>2.45714285714286,</v>
       </c>
       <c r="C201" s="10" t="str">
         <f>IF(Step1_GenProfile!H224, itp&amp;",", "")</f>
@@ -30427,11 +30427,11 @@
     <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H225, Step1_GenProfile!J225&amp;",","")</f>
-        <v>5.04801785714285,</v>
+        <v>5.06153571428571,</v>
       </c>
       <c r="B202" s="10" t="str">
         <f ca="1">IF(Step1_GenProfile!H225, Step1_GenProfile!I225&amp;",","")</f>
-        <v>2.25357142857143,</v>
+        <v>2.39285714285714,</v>
       </c>
       <c r="C202" s="10" t="str">
         <f>IF(Step1_GenProfile!H225, itp&amp;",", "")</f>
@@ -30551,7 +30551,7 @@
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f ca="1">"const int kMotionProfileSz =" &amp; COUNT(B7:B1202) &amp; ";"</f>
-        <v>const int kMotionProfileSz =240;</v>
+        <v>const int kMotionProfileSz =242;</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -33105,11 +33105,11 @@
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H207, "{"&amp;Step1_GenProfile!J207&amp;",","")</f>
-        <v>{4.55853571428571,</v>
+        <v>{4.55857142857142,</v>
       </c>
       <c r="B189" s="13">
         <f ca="1">IF(Step1_GenProfile!H207, Step1_GenProfile!I207*60,"")</f>
-        <v>179.57142857142861</v>
+        <v>180</v>
       </c>
       <c r="C189" s="13" t="str">
         <f>IF(Step1_GenProfile!H207, ","&amp;itp&amp; IF(Step1_GenProfile!M207,"}};","},"), "")</f>
@@ -33119,11 +33119,11 @@
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H208, "{"&amp;Step1_GenProfile!J208&amp;",","")</f>
-        <v>{4.58841071428571,</v>
+        <v>{4.58857142857142,</v>
       </c>
       <c r="B190" s="13">
         <f ca="1">IF(Step1_GenProfile!H208, Step1_GenProfile!I208*60,"")</f>
-        <v>178.92857142857144</v>
+        <v>180</v>
       </c>
       <c r="C190" s="13" t="str">
         <f>IF(Step1_GenProfile!H208, ","&amp;itp&amp; IF(Step1_GenProfile!M208,"}};","},"), "")</f>
@@ -33133,11 +33133,11 @@
     <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H209, "{"&amp;Step1_GenProfile!J209&amp;",","")</f>
-        <v>{4.61816071428571,</v>
+        <v>{4.61853571428571,</v>
       </c>
       <c r="B191" s="13">
         <f ca="1">IF(Step1_GenProfile!H209, Step1_GenProfile!I209*60,"")</f>
-        <v>178.07142857142861</v>
+        <v>179.57142857142861</v>
       </c>
       <c r="C191" s="13" t="str">
         <f>IF(Step1_GenProfile!H209, ","&amp;itp&amp; IF(Step1_GenProfile!M209,"}};","},"), "")</f>
@@ -33147,11 +33147,11 @@
     <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H210, "{"&amp;Step1_GenProfile!J210&amp;",","")</f>
-        <v>{4.64774999999999,</v>
+        <v>{4.64841071428571,</v>
       </c>
       <c r="B192" s="13">
         <f ca="1">IF(Step1_GenProfile!H210, Step1_GenProfile!I210*60,"")</f>
-        <v>176.99999999999997</v>
+        <v>178.92857142857144</v>
       </c>
       <c r="C192" s="13" t="str">
         <f>IF(Step1_GenProfile!H210, ","&amp;itp&amp; IF(Step1_GenProfile!M210,"}};","},"), "")</f>
@@ -33161,11 +33161,11 @@
     <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H211, "{"&amp;Step1_GenProfile!J211&amp;",","")</f>
-        <v>{4.67714285714285,</v>
+        <v>{4.67816071428571,</v>
       </c>
       <c r="B193" s="13">
         <f ca="1">IF(Step1_GenProfile!H211, Step1_GenProfile!I211*60,"")</f>
-        <v>175.71428571428569</v>
+        <v>178.07142857142861</v>
       </c>
       <c r="C193" s="13" t="str">
         <f>IF(Step1_GenProfile!H211, ","&amp;itp&amp; IF(Step1_GenProfile!M211,"}};","},"), "")</f>
@@ -33175,11 +33175,11 @@
     <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H212, "{"&amp;Step1_GenProfile!J212&amp;",","")</f>
-        <v>{4.70630357142856,</v>
+        <v>{4.70774999999999,</v>
       </c>
       <c r="B194" s="13">
         <f ca="1">IF(Step1_GenProfile!H212, Step1_GenProfile!I212*60,"")</f>
-        <v>174.21428571428572</v>
+        <v>176.99999999999997</v>
       </c>
       <c r="C194" s="13" t="str">
         <f>IF(Step1_GenProfile!H212, ","&amp;itp&amp; IF(Step1_GenProfile!M212,"}};","},"), "")</f>
@@ -33189,11 +33189,11 @@
     <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H213, "{"&amp;Step1_GenProfile!J213&amp;",","")</f>
-        <v>{4.73519642857142,</v>
+        <v>{4.73714285714285,</v>
       </c>
       <c r="B195" s="13">
         <f ca="1">IF(Step1_GenProfile!H213, Step1_GenProfile!I213*60,"")</f>
-        <v>172.5</v>
+        <v>175.71428571428569</v>
       </c>
       <c r="C195" s="13" t="str">
         <f>IF(Step1_GenProfile!H213, ","&amp;itp&amp; IF(Step1_GenProfile!M213,"}};","},"), "")</f>
@@ -33203,11 +33203,11 @@
     <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H214, "{"&amp;Step1_GenProfile!J214&amp;",","")</f>
-        <v>{4.7637857142857,</v>
+        <v>{4.76630357142856,</v>
       </c>
       <c r="B196" s="13">
         <f ca="1">IF(Step1_GenProfile!H214, Step1_GenProfile!I214*60,"")</f>
-        <v>170.57142857142858</v>
+        <v>174.21428571428572</v>
       </c>
       <c r="C196" s="13" t="str">
         <f>IF(Step1_GenProfile!H214, ","&amp;itp&amp; IF(Step1_GenProfile!M214,"}};","},"), "")</f>
@@ -33217,11 +33217,11 @@
     <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H215, "{"&amp;Step1_GenProfile!J215&amp;",","")</f>
-        <v>{4.7920357142857,</v>
+        <v>{4.79519642857142,</v>
       </c>
       <c r="B197" s="13">
         <f ca="1">IF(Step1_GenProfile!H215, Step1_GenProfile!I215*60,"")</f>
-        <v>168.42857142857142</v>
+        <v>172.5</v>
       </c>
       <c r="C197" s="13" t="str">
         <f>IF(Step1_GenProfile!H215, ","&amp;itp&amp; IF(Step1_GenProfile!M215,"}};","},"), "")</f>
@@ -33231,11 +33231,11 @@
     <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H216, "{"&amp;Step1_GenProfile!J216&amp;",","")</f>
-        <v>{4.8199107142857,</v>
+        <v>{4.82378571428571,</v>
       </c>
       <c r="B198" s="13">
         <f ca="1">IF(Step1_GenProfile!H216, Step1_GenProfile!I216*60,"")</f>
-        <v>166.07142857142858</v>
+        <v>170.57142857142858</v>
       </c>
       <c r="C198" s="13" t="str">
         <f>IF(Step1_GenProfile!H216, ","&amp;itp&amp; IF(Step1_GenProfile!M216,"}};","},"), "")</f>
@@ -33245,11 +33245,11 @@
     <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H217, "{"&amp;Step1_GenProfile!J217&amp;",","")</f>
-        <v>{4.84737499999999,</v>
+        <v>{4.85203571428571,</v>
       </c>
       <c r="B199" s="13">
         <f ca="1">IF(Step1_GenProfile!H217, Step1_GenProfile!I217*60,"")</f>
-        <v>163.5</v>
+        <v>168.42857142857142</v>
       </c>
       <c r="C199" s="13" t="str">
         <f>IF(Step1_GenProfile!H217, ","&amp;itp&amp; IF(Step1_GenProfile!M217,"}};","},"), "")</f>
@@ -33259,11 +33259,11 @@
     <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H218, "{"&amp;Step1_GenProfile!J218&amp;",","")</f>
-        <v>{4.87439285714285,</v>
+        <v>{4.8799107142857,</v>
       </c>
       <c r="B200" s="13">
         <f ca="1">IF(Step1_GenProfile!H218, Step1_GenProfile!I218*60,"")</f>
-        <v>160.71428571428567</v>
+        <v>166.07142857142858</v>
       </c>
       <c r="C200" s="13" t="str">
         <f>IF(Step1_GenProfile!H218, ","&amp;itp&amp; IF(Step1_GenProfile!M218,"}};","},"), "")</f>
@@ -33273,11 +33273,11 @@
     <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H219, "{"&amp;Step1_GenProfile!J219&amp;",","")</f>
-        <v>{4.90092857142856,</v>
+        <v>{4.90737499999999,</v>
       </c>
       <c r="B201" s="13">
         <f ca="1">IF(Step1_GenProfile!H219, Step1_GenProfile!I219*60,"")</f>
-        <v>157.71428571428569</v>
+        <v>163.5</v>
       </c>
       <c r="C201" s="13" t="str">
         <f>IF(Step1_GenProfile!H219, ","&amp;itp&amp; IF(Step1_GenProfile!M219,"}};","},"), "")</f>
@@ -33287,11 +33287,11 @@
     <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H220, "{"&amp;Step1_GenProfile!J220&amp;",","")</f>
-        <v>{4.92694642857142,</v>
+        <v>{4.93439285714285,</v>
       </c>
       <c r="B202" s="13">
         <f ca="1">IF(Step1_GenProfile!H220, Step1_GenProfile!I220*60,"")</f>
-        <v>154.49999999999994</v>
+        <v>160.71428571428567</v>
       </c>
       <c r="C202" s="13" t="str">
         <f>IF(Step1_GenProfile!H220, ","&amp;itp&amp; IF(Step1_GenProfile!M220,"}};","},"), "")</f>
@@ -33301,11 +33301,11 @@
     <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H221, "{"&amp;Step1_GenProfile!J221&amp;",","")</f>
-        <v>{4.9524107142857,</v>
+        <v>{4.96092857142856,</v>
       </c>
       <c r="B203" s="13">
         <f ca="1">IF(Step1_GenProfile!H221, Step1_GenProfile!I221*60,"")</f>
-        <v>151.07142857142856</v>
+        <v>157.71428571428569</v>
       </c>
       <c r="C203" s="13" t="str">
         <f>IF(Step1_GenProfile!H221, ","&amp;itp&amp; IF(Step1_GenProfile!M221,"}};","},"), "")</f>
@@ -33315,11 +33315,11 @@
     <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H222, "{"&amp;Step1_GenProfile!J222&amp;",","")</f>
-        <v>{4.9772857142857,</v>
+        <v>{4.98694642857142,</v>
       </c>
       <c r="B204" s="13">
         <f ca="1">IF(Step1_GenProfile!H222, Step1_GenProfile!I222*60,"")</f>
-        <v>147.42857142857139</v>
+        <v>154.49999999999994</v>
       </c>
       <c r="C204" s="13" t="str">
         <f>IF(Step1_GenProfile!H222, ","&amp;itp&amp; IF(Step1_GenProfile!M222,"}};","},"), "")</f>
@@ -33329,11 +33329,11 @@
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H223, "{"&amp;Step1_GenProfile!J223&amp;",","")</f>
-        <v>{5.0015357142857,</v>
+        <v>{5.01241071428571,</v>
       </c>
       <c r="B205" s="13">
         <f ca="1">IF(Step1_GenProfile!H223, Step1_GenProfile!I223*60,"")</f>
-        <v>143.57142857142856</v>
+        <v>151.07142857142856</v>
       </c>
       <c r="C205" s="13" t="str">
         <f>IF(Step1_GenProfile!H223, ","&amp;itp&amp; IF(Step1_GenProfile!M223,"}};","},"), "")</f>
@@ -33343,11 +33343,11 @@
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H224, "{"&amp;Step1_GenProfile!J224&amp;",","")</f>
-        <v>{5.02512499999999,</v>
+        <v>{5.03728571428571,</v>
       </c>
       <c r="B206" s="13">
         <f ca="1">IF(Step1_GenProfile!H224, Step1_GenProfile!I224*60,"")</f>
-        <v>139.49999999999994</v>
+        <v>147.42857142857139</v>
       </c>
       <c r="C206" s="13" t="str">
         <f>IF(Step1_GenProfile!H224, ","&amp;itp&amp; IF(Step1_GenProfile!M224,"}};","},"), "")</f>
@@ -33357,11 +33357,11 @@
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H225, "{"&amp;Step1_GenProfile!J225&amp;",","")</f>
-        <v>{5.04801785714285,</v>
+        <v>{5.06153571428571,</v>
       </c>
       <c r="B207" s="13">
         <f ca="1">IF(Step1_GenProfile!H225, Step1_GenProfile!I225*60,"")</f>
-        <v>135.21428571428569</v>
+        <v>143.57142857142856</v>
       </c>
       <c r="C207" s="13" t="str">
         <f>IF(Step1_GenProfile!H225, ","&amp;itp&amp; IF(Step1_GenProfile!M225,"}};","},"), "")</f>
@@ -33371,11 +33371,11 @@
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H226, "{"&amp;Step1_GenProfile!J226&amp;",","")</f>
-        <v>{5.07017857142856,</v>
+        <v>{5.08512499999999,</v>
       </c>
       <c r="B208" s="13">
         <f ca="1">IF(Step1_GenProfile!H226, Step1_GenProfile!I226*60,"")</f>
-        <v>130.71428571428567</v>
+        <v>139.49999999999994</v>
       </c>
       <c r="C208" s="13" t="str">
         <f>IF(Step1_GenProfile!H226, ","&amp;itp&amp; IF(Step1_GenProfile!M226,"}};","},"), "")</f>
@@ -33385,11 +33385,11 @@
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H227, "{"&amp;Step1_GenProfile!J227&amp;",","")</f>
-        <v>{5.09158928571428,</v>
+        <v>{5.10801785714285,</v>
       </c>
       <c r="B209" s="13">
         <f ca="1">IF(Step1_GenProfile!H227, Step1_GenProfile!I227*60,"")</f>
-        <v>126.21428571428569</v>
+        <v>135.21428571428569</v>
       </c>
       <c r="C209" s="13" t="str">
         <f>IF(Step1_GenProfile!H227, ","&amp;itp&amp; IF(Step1_GenProfile!M227,"}};","},"), "")</f>
@@ -33399,11 +33399,11 @@
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H228, "{"&amp;Step1_GenProfile!J228&amp;",","")</f>
-        <v>{5.11224999999999,</v>
+        <v>{5.13017857142856,</v>
       </c>
       <c r="B210" s="13">
         <f ca="1">IF(Step1_GenProfile!H228, Step1_GenProfile!I228*60,"")</f>
-        <v>121.71428571428565</v>
+        <v>130.71428571428567</v>
       </c>
       <c r="C210" s="13" t="str">
         <f>IF(Step1_GenProfile!H228, ","&amp;itp&amp; IF(Step1_GenProfile!M228,"}};","},"), "")</f>
@@ -33413,11 +33413,11 @@
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H229, "{"&amp;Step1_GenProfile!J229&amp;",","")</f>
-        <v>{5.13216071428571,</v>
+        <v>{5.15158928571428,</v>
       </c>
       <c r="B211" s="13">
         <f ca="1">IF(Step1_GenProfile!H229, Step1_GenProfile!I229*60,"")</f>
-        <v>117.21428571428565</v>
+        <v>126.21428571428569</v>
       </c>
       <c r="C211" s="13" t="str">
         <f>IF(Step1_GenProfile!H229, ","&amp;itp&amp; IF(Step1_GenProfile!M229,"}};","},"), "")</f>
@@ -33427,11 +33427,11 @@
     <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H230, "{"&amp;Step1_GenProfile!J230&amp;",","")</f>
-        <v>{5.15132142857142,</v>
+        <v>{5.17224999999999,</v>
       </c>
       <c r="B212" s="13">
         <f ca="1">IF(Step1_GenProfile!H230, Step1_GenProfile!I230*60,"")</f>
-        <v>112.71428571428564</v>
+        <v>121.71428571428565</v>
       </c>
       <c r="C212" s="13" t="str">
         <f>IF(Step1_GenProfile!H230, ","&amp;itp&amp; IF(Step1_GenProfile!M230,"}};","},"), "")</f>
@@ -33441,11 +33441,11 @@
     <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H231, "{"&amp;Step1_GenProfile!J231&amp;",","")</f>
-        <v>{5.16973214285713,</v>
+        <v>{5.19216071428571,</v>
       </c>
       <c r="B213" s="13">
         <f ca="1">IF(Step1_GenProfile!H231, Step1_GenProfile!I231*60,"")</f>
-        <v>108.21428571428565</v>
+        <v>117.21428571428565</v>
       </c>
       <c r="C213" s="13" t="str">
         <f>IF(Step1_GenProfile!H231, ","&amp;itp&amp; IF(Step1_GenProfile!M231,"}};","},"), "")</f>
@@ -33455,11 +33455,11 @@
     <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H232, "{"&amp;Step1_GenProfile!J232&amp;",","")</f>
-        <v>{5.18739285714285,</v>
+        <v>{5.21132142857142,</v>
       </c>
       <c r="B214" s="13">
         <f ca="1">IF(Step1_GenProfile!H232, Step1_GenProfile!I232*60,"")</f>
-        <v>103.71428571428567</v>
+        <v>112.71428571428564</v>
       </c>
       <c r="C214" s="13" t="str">
         <f>IF(Step1_GenProfile!H232, ","&amp;itp&amp; IF(Step1_GenProfile!M232,"}};","},"), "")</f>
@@ -33469,11 +33469,11 @@
     <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H233, "{"&amp;Step1_GenProfile!J233&amp;",","")</f>
-        <v>{5.20430357142856,</v>
+        <v>{5.22973214285713,</v>
       </c>
       <c r="B215" s="13">
         <f ca="1">IF(Step1_GenProfile!H233, Step1_GenProfile!I233*60,"")</f>
-        <v>99.214285714285637</v>
+        <v>108.21428571428565</v>
       </c>
       <c r="C215" s="13" t="str">
         <f>IF(Step1_GenProfile!H233, ","&amp;itp&amp; IF(Step1_GenProfile!M233,"}};","},"), "")</f>
@@ -33483,11 +33483,11 @@
     <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H234, "{"&amp;Step1_GenProfile!J234&amp;",","")</f>
-        <v>{5.22046428571428,</v>
+        <v>{5.24739285714285,</v>
       </c>
       <c r="B216" s="13">
         <f ca="1">IF(Step1_GenProfile!H234, Step1_GenProfile!I234*60,"")</f>
-        <v>94.714285714285637</v>
+        <v>103.71428571428567</v>
       </c>
       <c r="C216" s="13" t="str">
         <f>IF(Step1_GenProfile!H234, ","&amp;itp&amp; IF(Step1_GenProfile!M234,"}};","},"), "")</f>
@@ -33497,11 +33497,11 @@
     <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H235, "{"&amp;Step1_GenProfile!J235&amp;",","")</f>
-        <v>{5.23587499999999,</v>
+        <v>{5.26430357142856,</v>
       </c>
       <c r="B217" s="13">
         <f ca="1">IF(Step1_GenProfile!H235, Step1_GenProfile!I235*60,"")</f>
-        <v>90.214285714285609</v>
+        <v>99.214285714285637</v>
       </c>
       <c r="C217" s="13" t="str">
         <f>IF(Step1_GenProfile!H235, ","&amp;itp&amp; IF(Step1_GenProfile!M235,"}};","},"), "")</f>
@@ -33511,11 +33511,11 @@
     <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H236, "{"&amp;Step1_GenProfile!J236&amp;",","")</f>
-        <v>{5.25053571428571,</v>
+        <v>{5.28046428571428,</v>
       </c>
       <c r="B218" s="13">
         <f ca="1">IF(Step1_GenProfile!H236, Step1_GenProfile!I236*60,"")</f>
-        <v>85.714285714285637</v>
+        <v>94.714285714285637</v>
       </c>
       <c r="C218" s="13" t="str">
         <f>IF(Step1_GenProfile!H236, ","&amp;itp&amp; IF(Step1_GenProfile!M236,"}};","},"), "")</f>
@@ -33525,11 +33525,11 @@
     <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H237, "{"&amp;Step1_GenProfile!J237&amp;",","")</f>
-        <v>{5.26444642857142,</v>
+        <v>{5.29587499999999,</v>
       </c>
       <c r="B219" s="13">
         <f ca="1">IF(Step1_GenProfile!H237, Step1_GenProfile!I237*60,"")</f>
-        <v>81.214285714285637</v>
+        <v>90.214285714285609</v>
       </c>
       <c r="C219" s="13" t="str">
         <f>IF(Step1_GenProfile!H237, ","&amp;itp&amp; IF(Step1_GenProfile!M237,"}};","},"), "")</f>
@@ -33539,11 +33539,11 @@
     <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H238, "{"&amp;Step1_GenProfile!J238&amp;",","")</f>
-        <v>{5.27760714285713,</v>
+        <v>{5.31053571428571,</v>
       </c>
       <c r="B220" s="13">
         <f ca="1">IF(Step1_GenProfile!H238, Step1_GenProfile!I238*60,"")</f>
-        <v>76.714285714285623</v>
+        <v>85.714285714285637</v>
       </c>
       <c r="C220" s="13" t="str">
         <f>IF(Step1_GenProfile!H238, ","&amp;itp&amp; IF(Step1_GenProfile!M238,"}};","},"), "")</f>
@@ -33553,11 +33553,11 @@
     <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H239, "{"&amp;Step1_GenProfile!J239&amp;",","")</f>
-        <v>{5.29001785714285,</v>
+        <v>{5.32444642857142,</v>
       </c>
       <c r="B221" s="13">
         <f ca="1">IF(Step1_GenProfile!H239, Step1_GenProfile!I239*60,"")</f>
-        <v>72.214285714285623</v>
+        <v>81.214285714285637</v>
       </c>
       <c r="C221" s="13" t="str">
         <f>IF(Step1_GenProfile!H239, ","&amp;itp&amp; IF(Step1_GenProfile!M239,"}};","},"), "")</f>
@@ -33567,11 +33567,11 @@
     <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H240, "{"&amp;Step1_GenProfile!J240&amp;",","")</f>
-        <v>{5.30167857142856,</v>
+        <v>{5.33760714285713,</v>
       </c>
       <c r="B222" s="13">
         <f ca="1">IF(Step1_GenProfile!H240, Step1_GenProfile!I240*60,"")</f>
-        <v>67.714285714285623</v>
+        <v>76.714285714285623</v>
       </c>
       <c r="C222" s="13" t="str">
         <f>IF(Step1_GenProfile!H240, ","&amp;itp&amp; IF(Step1_GenProfile!M240,"}};","},"), "")</f>
@@ -33581,11 +33581,11 @@
     <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H241, "{"&amp;Step1_GenProfile!J241&amp;",","")</f>
-        <v>{5.31258928571428,</v>
+        <v>{5.35001785714285,</v>
       </c>
       <c r="B223" s="13">
         <f ca="1">IF(Step1_GenProfile!H241, Step1_GenProfile!I241*60,"")</f>
-        <v>63.214285714285623</v>
+        <v>72.214285714285623</v>
       </c>
       <c r="C223" s="13" t="str">
         <f>IF(Step1_GenProfile!H241, ","&amp;itp&amp; IF(Step1_GenProfile!M241,"}};","},"), "")</f>
@@ -33595,11 +33595,11 @@
     <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H242, "{"&amp;Step1_GenProfile!J242&amp;",","")</f>
-        <v>{5.32274999999999,</v>
+        <v>{5.36167857142856,</v>
       </c>
       <c r="B224" s="13">
         <f ca="1">IF(Step1_GenProfile!H242, Step1_GenProfile!I242*60,"")</f>
-        <v>58.714285714285609</v>
+        <v>67.714285714285623</v>
       </c>
       <c r="C224" s="13" t="str">
         <f>IF(Step1_GenProfile!H242, ","&amp;itp&amp; IF(Step1_GenProfile!M242,"}};","},"), "")</f>
@@ -33609,11 +33609,11 @@
     <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H243, "{"&amp;Step1_GenProfile!J243&amp;",","")</f>
-        <v>{5.3321607142857,</v>
+        <v>{5.37258928571428,</v>
       </c>
       <c r="B225" s="13">
         <f ca="1">IF(Step1_GenProfile!H243, Step1_GenProfile!I243*60,"")</f>
-        <v>54.214285714285623</v>
+        <v>63.214285714285623</v>
       </c>
       <c r="C225" s="13" t="str">
         <f>IF(Step1_GenProfile!H243, ","&amp;itp&amp; IF(Step1_GenProfile!M243,"}};","},"), "")</f>
@@ -33623,11 +33623,11 @@
     <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H244, "{"&amp;Step1_GenProfile!J244&amp;",","")</f>
-        <v>{5.34082142857142,</v>
+        <v>{5.38274999999999,</v>
       </c>
       <c r="B226" s="13">
         <f ca="1">IF(Step1_GenProfile!H244, Step1_GenProfile!I244*60,"")</f>
-        <v>49.714285714285616</v>
+        <v>58.714285714285609</v>
       </c>
       <c r="C226" s="13" t="str">
         <f>IF(Step1_GenProfile!H244, ","&amp;itp&amp; IF(Step1_GenProfile!M244,"}};","},"), "")</f>
@@ -33637,11 +33637,11 @@
     <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A227" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H245, "{"&amp;Step1_GenProfile!J245&amp;",","")</f>
-        <v>{5.34873214285713,</v>
+        <v>{5.3921607142857,</v>
       </c>
       <c r="B227" s="13">
         <f ca="1">IF(Step1_GenProfile!H245, Step1_GenProfile!I245*60,"")</f>
-        <v>45.214285714285616</v>
+        <v>54.214285714285623</v>
       </c>
       <c r="C227" s="13" t="str">
         <f>IF(Step1_GenProfile!H245, ","&amp;itp&amp; IF(Step1_GenProfile!M245,"}};","},"), "")</f>
@@ -33651,39 +33651,39 @@
     <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H246, "{"&amp;Step1_GenProfile!J246&amp;",","")</f>
-        <v>{5.35589285714285,</v>
+        <v>{5.40082142857142,</v>
       </c>
       <c r="B228" s="13">
         <f ca="1">IF(Step1_GenProfile!H246, Step1_GenProfile!I246*60,"")</f>
-        <v>40.714285714285623</v>
+        <v>49.714285714285616</v>
       </c>
       <c r="C228" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H246, ","&amp;itp&amp; IF(Step1_GenProfile!M246,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H246, ","&amp;itp&amp; IF(Step1_GenProfile!M246,"}};","},"), "")</f>
         <v>,10},</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A229" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H247, "{"&amp;Step1_GenProfile!J247&amp;",","")</f>
-        <v>{5.36233928571427,</v>
+        <v>{5.40873214285713,</v>
       </c>
       <c r="B229" s="13">
         <f ca="1">IF(Step1_GenProfile!H247, Step1_GenProfile!I247*60,"")</f>
-        <v>36.642857142857068</v>
+        <v>45.214285714285616</v>
       </c>
       <c r="C229" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H247, ","&amp;itp&amp; IF(Step1_GenProfile!M247,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H247, ","&amp;itp&amp; IF(Step1_GenProfile!M247,"}};","},"), "")</f>
         <v>,10},</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, "{"&amp;Step1_GenProfile!J248&amp;",","")</f>
-        <v>{5.36812499999999,</v>
+        <v>{5.41589285714285,</v>
       </c>
       <c r="B230" s="13">
         <f ca="1">IF(Step1_GenProfile!H248, Step1_GenProfile!I248*60,"")</f>
-        <v>32.785714285714192</v>
+        <v>40.714285714285623</v>
       </c>
       <c r="C230" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, ","&amp;itp&amp; IF(Step1_GenProfile!M248,"}};","},"), "")</f>
@@ -33693,11 +33693,11 @@
     <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A231" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, "{"&amp;Step1_GenProfile!J249&amp;",","")</f>
-        <v>{5.3732857142857,</v>
+        <v>{5.42233928571428,</v>
       </c>
       <c r="B231" s="13">
         <f ca="1">IF(Step1_GenProfile!H249, Step1_GenProfile!I249*60,"")</f>
-        <v>29.142857142857061</v>
+        <v>36.642857142857068</v>
       </c>
       <c r="C231" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, ","&amp;itp&amp; IF(Step1_GenProfile!M249,"}};","},"), "")</f>
@@ -33707,11 +33707,11 @@
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, "{"&amp;Step1_GenProfile!J250&amp;",","")</f>
-        <v>{5.37785714285713,</v>
+        <v>{5.42812499999999,</v>
       </c>
       <c r="B232" s="13">
         <f ca="1">IF(Step1_GenProfile!H250, Step1_GenProfile!I250*60,"")</f>
-        <v>25.714285714285634</v>
+        <v>32.785714285714192</v>
       </c>
       <c r="C232" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, ","&amp;itp&amp; IF(Step1_GenProfile!M250,"}};","},"), "")</f>
@@ -33721,11 +33721,11 @@
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, "{"&amp;Step1_GenProfile!J251&amp;",","")</f>
-        <v>{5.38187499999999,</v>
+        <v>{5.4332857142857,</v>
       </c>
       <c r="B233" s="13">
         <f ca="1">IF(Step1_GenProfile!H251, Step1_GenProfile!I251*60,"")</f>
-        <v>22.499999999999925</v>
+        <v>29.142857142857061</v>
       </c>
       <c r="C233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, ","&amp;itp&amp; IF(Step1_GenProfile!M251,"}};","},"), "")</f>
@@ -33735,11 +33735,11 @@
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, "{"&amp;Step1_GenProfile!J252&amp;",","")</f>
-        <v>{5.38537499999999,</v>
+        <v>{5.43785714285713,</v>
       </c>
       <c r="B234" s="13">
         <f ca="1">IF(Step1_GenProfile!H252, Step1_GenProfile!I252*60,"")</f>
-        <v>19.499999999999929</v>
+        <v>25.714285714285634</v>
       </c>
       <c r="C234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, ","&amp;itp&amp; IF(Step1_GenProfile!M252,"}};","},"), "")</f>
@@ -33749,11 +33749,11 @@
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, "{"&amp;Step1_GenProfile!J253&amp;",","")</f>
-        <v>{5.38839285714285,</v>
+        <v>{5.44187499999999,</v>
       </c>
       <c r="B235" s="13">
         <f ca="1">IF(Step1_GenProfile!H253, Step1_GenProfile!I253*60,"")</f>
-        <v>16.714285714285648</v>
+        <v>22.499999999999925</v>
       </c>
       <c r="C235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, ","&amp;itp&amp; IF(Step1_GenProfile!M253,"}};","},"), "")</f>
@@ -33763,11 +33763,11 @@
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, "{"&amp;Step1_GenProfile!J254&amp;",","")</f>
-        <v>{5.39096428571427,</v>
+        <v>{5.44537499999999,</v>
       </c>
       <c r="B236" s="13">
         <f ca="1">IF(Step1_GenProfile!H254, Step1_GenProfile!I254*60,"")</f>
-        <v>14.142857142857086</v>
+        <v>19.499999999999929</v>
       </c>
       <c r="C236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, ","&amp;itp&amp; IF(Step1_GenProfile!M254,"}};","},"), "")</f>
@@ -33777,11 +33777,11 @@
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, "{"&amp;Step1_GenProfile!J255&amp;",","")</f>
-        <v>{5.39312499999999,</v>
+        <v>{5.44839285714285,</v>
       </c>
       <c r="B237" s="13">
         <f ca="1">IF(Step1_GenProfile!H255, Step1_GenProfile!I255*60,"")</f>
-        <v>11.785714285714231</v>
+        <v>16.714285714285648</v>
       </c>
       <c r="C237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, ","&amp;itp&amp; IF(Step1_GenProfile!M255,"}};","},"), "")</f>
@@ -33791,11 +33791,11 @@
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, "{"&amp;Step1_GenProfile!J256&amp;",","")</f>
-        <v>{5.3949107142857,</v>
+        <v>{5.45096428571428,</v>
       </c>
       <c r="B238" s="13">
         <f ca="1">IF(Step1_GenProfile!H256, Step1_GenProfile!I256*60,"")</f>
-        <v>9.6428571428570962</v>
+        <v>14.142857142857086</v>
       </c>
       <c r="C238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, ","&amp;itp&amp; IF(Step1_GenProfile!M256,"}};","},"), "")</f>
@@ -33805,11 +33805,11 @@
     <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, "{"&amp;Step1_GenProfile!J257&amp;",","")</f>
-        <v>{5.39635714285713,</v>
+        <v>{5.45312499999999,</v>
       </c>
       <c r="B239" s="13">
         <f ca="1">IF(Step1_GenProfile!H257, Step1_GenProfile!I257*60,"")</f>
-        <v>7.7142857142856718</v>
+        <v>11.785714285714231</v>
       </c>
       <c r="C239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, ","&amp;itp&amp; IF(Step1_GenProfile!M257,"}};","},"), "")</f>
@@ -33819,11 +33819,11 @@
     <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, "{"&amp;Step1_GenProfile!J258&amp;",","")</f>
-        <v>{5.39749999999999,</v>
+        <v>{5.4549107142857,</v>
       </c>
       <c r="B240" s="13">
         <f ca="1">IF(Step1_GenProfile!H258, Step1_GenProfile!I258*60,"")</f>
-        <v>5.9999999999999618</v>
+        <v>9.6428571428570962</v>
       </c>
       <c r="C240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, ","&amp;itp&amp; IF(Step1_GenProfile!M258,"}};","},"), "")</f>
@@ -33833,11 +33833,11 @@
     <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, "{"&amp;Step1_GenProfile!J259&amp;",","")</f>
-        <v>{5.39837499999999,</v>
+        <v>{5.45635714285713,</v>
       </c>
       <c r="B241" s="13">
         <f ca="1">IF(Step1_GenProfile!H259, Step1_GenProfile!I259*60,"")</f>
-        <v>4.4999999999999689</v>
+        <v>7.7142857142856718</v>
       </c>
       <c r="C241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, ","&amp;itp&amp; IF(Step1_GenProfile!M259,"}};","},"), "")</f>
@@ -33847,11 +33847,11 @@
     <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, "{"&amp;Step1_GenProfile!J260&amp;",","")</f>
-        <v>{5.39901785714285,</v>
+        <v>{5.45749999999999,</v>
       </c>
       <c r="B242" s="13">
         <f ca="1">IF(Step1_GenProfile!H260, Step1_GenProfile!I260*60,"")</f>
-        <v>3.2142857142856878</v>
+        <v>5.9999999999999618</v>
       </c>
       <c r="C242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, ","&amp;itp&amp; IF(Step1_GenProfile!M260,"}};","},"), "")</f>
@@ -33861,11 +33861,11 @@
     <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, "{"&amp;Step1_GenProfile!J261&amp;",","")</f>
-        <v>{5.39946428571427,</v>
+        <v>{5.45837499999999,</v>
       </c>
       <c r="B243" s="13">
         <f ca="1">IF(Step1_GenProfile!H261, Step1_GenProfile!I261*60,"")</f>
-        <v>2.1428571428571224</v>
+        <v>4.4999999999999689</v>
       </c>
       <c r="C243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, ","&amp;itp&amp; IF(Step1_GenProfile!M261,"}};","},"), "")</f>
@@ -33875,11 +33875,11 @@
     <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, "{"&amp;Step1_GenProfile!J262&amp;",","")</f>
-        <v>{5.39974999999999,</v>
+        <v>{5.45901785714285,</v>
       </c>
       <c r="B244" s="13">
         <f ca="1">IF(Step1_GenProfile!H262, Step1_GenProfile!I262*60,"")</f>
-        <v>1.2857142857142703</v>
+        <v>3.2142857142856878</v>
       </c>
       <c r="C244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, ","&amp;itp&amp; IF(Step1_GenProfile!M262,"}};","},"), "")</f>
@@ -33889,11 +33889,11 @@
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, "{"&amp;Step1_GenProfile!J263&amp;",","")</f>
-        <v>{5.3999107142857,</v>
+        <v>{5.45946428571427,</v>
       </c>
       <c r="B245" s="13">
         <f ca="1">IF(Step1_GenProfile!H263, Step1_GenProfile!I263*60,"")</f>
-        <v>0.64285714285713247</v>
+        <v>2.1428571428571224</v>
       </c>
       <c r="C245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, ","&amp;itp&amp; IF(Step1_GenProfile!M263,"}};","},"), "")</f>
@@ -33903,11 +33903,11 @@
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, "{"&amp;Step1_GenProfile!J264&amp;",","")</f>
-        <v>{5.39998214285713,</v>
+        <v>{5.45974999999999,</v>
       </c>
       <c r="B246" s="13">
         <f ca="1">IF(Step1_GenProfile!H264, Step1_GenProfile!I264*60,"")</f>
-        <v>0.21428571428570911</v>
+        <v>1.2857142857142703</v>
       </c>
       <c r="C246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, ","&amp;itp&amp; IF(Step1_GenProfile!M264,"}};","},"), "")</f>
@@ -33917,43 +33917,43 @@
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, "{"&amp;Step1_GenProfile!J265&amp;",","")</f>
-        <v>{5.39999999999999,</v>
+        <v>{5.4599107142857,</v>
       </c>
       <c r="B247" s="13">
         <f ca="1">IF(Step1_GenProfile!H265, Step1_GenProfile!I265*60,"")</f>
-        <v>0</v>
+        <v>0.64285714285713247</v>
       </c>
       <c r="C247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, ","&amp;itp&amp; IF(Step1_GenProfile!M265,"}};","},"), "")</f>
-        <v>,10}};</v>
+        <v>,10},</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, "{"&amp;Step1_GenProfile!J266&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="B248" s="13" t="str">
+        <v>{5.45998214285713,</v>
+      </c>
+      <c r="B248" s="13">
         <f ca="1">IF(Step1_GenProfile!H266, Step1_GenProfile!I266*60,"")</f>
-        <v/>
+        <v>0.21428571428570911</v>
       </c>
       <c r="C248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, ","&amp;itp&amp; IF(Step1_GenProfile!M266,"}};","},"), "")</f>
-        <v/>
+        <v>,10},</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, "{"&amp;Step1_GenProfile!J267&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="B249" s="13" t="str">
+        <v>{5.45999999999999,</v>
+      </c>
+      <c r="B249" s="13">
         <f ca="1">IF(Step1_GenProfile!H267, Step1_GenProfile!I267*60,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, ","&amp;itp&amp; IF(Step1_GenProfile!M267,"}};","},"), "")</f>
-        <v/>
+        <v>,10}};</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -36239,7 +36239,7 @@
   <dimension ref="A1:D413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D249"/>
+      <selection activeCell="B7" sqref="B7:D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36293,7 +36293,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="str">
         <f ca="1">"public static final int kNumPoints =" &amp; COUNT(C9:C1204) &amp; ";"</f>
-        <v>public static final int kNumPoints =240;</v>
+        <v>public static final int kNumPoints =242;</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -39037,11 +39037,11 @@
       <c r="A191" s="13"/>
       <c r="B191" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H207, "{"&amp;Step1_GenProfile!J207&amp;",","")</f>
-        <v>{4.55853571428571,</v>
+        <v>{4.55857142857142,</v>
       </c>
       <c r="C191" s="13">
         <f ca="1">IF(Step1_GenProfile!H207, Step1_GenProfile!I207*60,"")</f>
-        <v>179.57142857142861</v>
+        <v>180</v>
       </c>
       <c r="D191" s="13" t="str">
         <f>IF(Step1_GenProfile!H207, ","&amp;itp&amp; IF(Step1_GenProfile!M207,"}};","},"), "")</f>
@@ -39052,11 +39052,11 @@
       <c r="A192" s="13"/>
       <c r="B192" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H208, "{"&amp;Step1_GenProfile!J208&amp;",","")</f>
-        <v>{4.58841071428571,</v>
+        <v>{4.58857142857142,</v>
       </c>
       <c r="C192" s="13">
         <f ca="1">IF(Step1_GenProfile!H208, Step1_GenProfile!I208*60,"")</f>
-        <v>178.92857142857144</v>
+        <v>180</v>
       </c>
       <c r="D192" s="13" t="str">
         <f>IF(Step1_GenProfile!H208, ","&amp;itp&amp; IF(Step1_GenProfile!M208,"}};","},"), "")</f>
@@ -39067,11 +39067,11 @@
       <c r="A193" s="13"/>
       <c r="B193" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H209, "{"&amp;Step1_GenProfile!J209&amp;",","")</f>
-        <v>{4.61816071428571,</v>
+        <v>{4.61853571428571,</v>
       </c>
       <c r="C193" s="13">
         <f ca="1">IF(Step1_GenProfile!H209, Step1_GenProfile!I209*60,"")</f>
-        <v>178.07142857142861</v>
+        <v>179.57142857142861</v>
       </c>
       <c r="D193" s="13" t="str">
         <f>IF(Step1_GenProfile!H209, ","&amp;itp&amp; IF(Step1_GenProfile!M209,"}};","},"), "")</f>
@@ -39082,11 +39082,11 @@
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H210, "{"&amp;Step1_GenProfile!J210&amp;",","")</f>
-        <v>{4.64774999999999,</v>
+        <v>{4.64841071428571,</v>
       </c>
       <c r="C194" s="13">
         <f ca="1">IF(Step1_GenProfile!H210, Step1_GenProfile!I210*60,"")</f>
-        <v>176.99999999999997</v>
+        <v>178.92857142857144</v>
       </c>
       <c r="D194" s="13" t="str">
         <f>IF(Step1_GenProfile!H210, ","&amp;itp&amp; IF(Step1_GenProfile!M210,"}};","},"), "")</f>
@@ -39097,11 +39097,11 @@
       <c r="A195" s="13"/>
       <c r="B195" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H211, "{"&amp;Step1_GenProfile!J211&amp;",","")</f>
-        <v>{4.67714285714285,</v>
+        <v>{4.67816071428571,</v>
       </c>
       <c r="C195" s="13">
         <f ca="1">IF(Step1_GenProfile!H211, Step1_GenProfile!I211*60,"")</f>
-        <v>175.71428571428569</v>
+        <v>178.07142857142861</v>
       </c>
       <c r="D195" s="13" t="str">
         <f>IF(Step1_GenProfile!H211, ","&amp;itp&amp; IF(Step1_GenProfile!M211,"}};","},"), "")</f>
@@ -39112,11 +39112,11 @@
       <c r="A196" s="13"/>
       <c r="B196" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H212, "{"&amp;Step1_GenProfile!J212&amp;",","")</f>
-        <v>{4.70630357142856,</v>
+        <v>{4.70774999999999,</v>
       </c>
       <c r="C196" s="13">
         <f ca="1">IF(Step1_GenProfile!H212, Step1_GenProfile!I212*60,"")</f>
-        <v>174.21428571428572</v>
+        <v>176.99999999999997</v>
       </c>
       <c r="D196" s="13" t="str">
         <f>IF(Step1_GenProfile!H212, ","&amp;itp&amp; IF(Step1_GenProfile!M212,"}};","},"), "")</f>
@@ -39127,11 +39127,11 @@
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H213, "{"&amp;Step1_GenProfile!J213&amp;",","")</f>
-        <v>{4.73519642857142,</v>
+        <v>{4.73714285714285,</v>
       </c>
       <c r="C197" s="13">
         <f ca="1">IF(Step1_GenProfile!H213, Step1_GenProfile!I213*60,"")</f>
-        <v>172.5</v>
+        <v>175.71428571428569</v>
       </c>
       <c r="D197" s="13" t="str">
         <f>IF(Step1_GenProfile!H213, ","&amp;itp&amp; IF(Step1_GenProfile!M213,"}};","},"), "")</f>
@@ -39142,11 +39142,11 @@
       <c r="A198" s="13"/>
       <c r="B198" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H214, "{"&amp;Step1_GenProfile!J214&amp;",","")</f>
-        <v>{4.7637857142857,</v>
+        <v>{4.76630357142856,</v>
       </c>
       <c r="C198" s="13">
         <f ca="1">IF(Step1_GenProfile!H214, Step1_GenProfile!I214*60,"")</f>
-        <v>170.57142857142858</v>
+        <v>174.21428571428572</v>
       </c>
       <c r="D198" s="13" t="str">
         <f>IF(Step1_GenProfile!H214, ","&amp;itp&amp; IF(Step1_GenProfile!M214,"}};","},"), "")</f>
@@ -39157,11 +39157,11 @@
       <c r="A199" s="13"/>
       <c r="B199" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H215, "{"&amp;Step1_GenProfile!J215&amp;",","")</f>
-        <v>{4.7920357142857,</v>
+        <v>{4.79519642857142,</v>
       </c>
       <c r="C199" s="13">
         <f ca="1">IF(Step1_GenProfile!H215, Step1_GenProfile!I215*60,"")</f>
-        <v>168.42857142857142</v>
+        <v>172.5</v>
       </c>
       <c r="D199" s="13" t="str">
         <f>IF(Step1_GenProfile!H215, ","&amp;itp&amp; IF(Step1_GenProfile!M215,"}};","},"), "")</f>
@@ -39172,11 +39172,11 @@
       <c r="A200" s="13"/>
       <c r="B200" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H216, "{"&amp;Step1_GenProfile!J216&amp;",","")</f>
-        <v>{4.8199107142857,</v>
+        <v>{4.82378571428571,</v>
       </c>
       <c r="C200" s="13">
         <f ca="1">IF(Step1_GenProfile!H216, Step1_GenProfile!I216*60,"")</f>
-        <v>166.07142857142858</v>
+        <v>170.57142857142858</v>
       </c>
       <c r="D200" s="13" t="str">
         <f>IF(Step1_GenProfile!H216, ","&amp;itp&amp; IF(Step1_GenProfile!M216,"}};","},"), "")</f>
@@ -39187,11 +39187,11 @@
       <c r="A201" s="13"/>
       <c r="B201" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H217, "{"&amp;Step1_GenProfile!J217&amp;",","")</f>
-        <v>{4.84737499999999,</v>
+        <v>{4.85203571428571,</v>
       </c>
       <c r="C201" s="13">
         <f ca="1">IF(Step1_GenProfile!H217, Step1_GenProfile!I217*60,"")</f>
-        <v>163.5</v>
+        <v>168.42857142857142</v>
       </c>
       <c r="D201" s="13" t="str">
         <f>IF(Step1_GenProfile!H217, ","&amp;itp&amp; IF(Step1_GenProfile!M217,"}};","},"), "")</f>
@@ -39202,11 +39202,11 @@
       <c r="A202" s="13"/>
       <c r="B202" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H218, "{"&amp;Step1_GenProfile!J218&amp;",","")</f>
-        <v>{4.87439285714285,</v>
+        <v>{4.8799107142857,</v>
       </c>
       <c r="C202" s="13">
         <f ca="1">IF(Step1_GenProfile!H218, Step1_GenProfile!I218*60,"")</f>
-        <v>160.71428571428567</v>
+        <v>166.07142857142858</v>
       </c>
       <c r="D202" s="13" t="str">
         <f>IF(Step1_GenProfile!H218, ","&amp;itp&amp; IF(Step1_GenProfile!M218,"}};","},"), "")</f>
@@ -39217,11 +39217,11 @@
       <c r="A203" s="13"/>
       <c r="B203" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H219, "{"&amp;Step1_GenProfile!J219&amp;",","")</f>
-        <v>{4.90092857142856,</v>
+        <v>{4.90737499999999,</v>
       </c>
       <c r="C203" s="13">
         <f ca="1">IF(Step1_GenProfile!H219, Step1_GenProfile!I219*60,"")</f>
-        <v>157.71428571428569</v>
+        <v>163.5</v>
       </c>
       <c r="D203" s="13" t="str">
         <f>IF(Step1_GenProfile!H219, ","&amp;itp&amp; IF(Step1_GenProfile!M219,"}};","},"), "")</f>
@@ -39232,11 +39232,11 @@
       <c r="A204" s="13"/>
       <c r="B204" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H220, "{"&amp;Step1_GenProfile!J220&amp;",","")</f>
-        <v>{4.92694642857142,</v>
+        <v>{4.93439285714285,</v>
       </c>
       <c r="C204" s="13">
         <f ca="1">IF(Step1_GenProfile!H220, Step1_GenProfile!I220*60,"")</f>
-        <v>154.49999999999994</v>
+        <v>160.71428571428567</v>
       </c>
       <c r="D204" s="13" t="str">
         <f>IF(Step1_GenProfile!H220, ","&amp;itp&amp; IF(Step1_GenProfile!M220,"}};","},"), "")</f>
@@ -39247,11 +39247,11 @@
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H221, "{"&amp;Step1_GenProfile!J221&amp;",","")</f>
-        <v>{4.9524107142857,</v>
+        <v>{4.96092857142856,</v>
       </c>
       <c r="C205" s="13">
         <f ca="1">IF(Step1_GenProfile!H221, Step1_GenProfile!I221*60,"")</f>
-        <v>151.07142857142856</v>
+        <v>157.71428571428569</v>
       </c>
       <c r="D205" s="13" t="str">
         <f>IF(Step1_GenProfile!H221, ","&amp;itp&amp; IF(Step1_GenProfile!M221,"}};","},"), "")</f>
@@ -39262,11 +39262,11 @@
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H222, "{"&amp;Step1_GenProfile!J222&amp;",","")</f>
-        <v>{4.9772857142857,</v>
+        <v>{4.98694642857142,</v>
       </c>
       <c r="C206" s="13">
         <f ca="1">IF(Step1_GenProfile!H222, Step1_GenProfile!I222*60,"")</f>
-        <v>147.42857142857139</v>
+        <v>154.49999999999994</v>
       </c>
       <c r="D206" s="13" t="str">
         <f>IF(Step1_GenProfile!H222, ","&amp;itp&amp; IF(Step1_GenProfile!M222,"}};","},"), "")</f>
@@ -39277,11 +39277,11 @@
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H223, "{"&amp;Step1_GenProfile!J223&amp;",","")</f>
-        <v>{5.0015357142857,</v>
+        <v>{5.01241071428571,</v>
       </c>
       <c r="C207" s="13">
         <f ca="1">IF(Step1_GenProfile!H223, Step1_GenProfile!I223*60,"")</f>
-        <v>143.57142857142856</v>
+        <v>151.07142857142856</v>
       </c>
       <c r="D207" s="13" t="str">
         <f>IF(Step1_GenProfile!H223, ","&amp;itp&amp; IF(Step1_GenProfile!M223,"}};","},"), "")</f>
@@ -39292,11 +39292,11 @@
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H224, "{"&amp;Step1_GenProfile!J224&amp;",","")</f>
-        <v>{5.02512499999999,</v>
+        <v>{5.03728571428571,</v>
       </c>
       <c r="C208" s="13">
         <f ca="1">IF(Step1_GenProfile!H224, Step1_GenProfile!I224*60,"")</f>
-        <v>139.49999999999994</v>
+        <v>147.42857142857139</v>
       </c>
       <c r="D208" s="13" t="str">
         <f>IF(Step1_GenProfile!H224, ","&amp;itp&amp; IF(Step1_GenProfile!M224,"}};","},"), "")</f>
@@ -39307,11 +39307,11 @@
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H225, "{"&amp;Step1_GenProfile!J225&amp;",","")</f>
-        <v>{5.04801785714285,</v>
+        <v>{5.06153571428571,</v>
       </c>
       <c r="C209" s="13">
         <f ca="1">IF(Step1_GenProfile!H225, Step1_GenProfile!I225*60,"")</f>
-        <v>135.21428571428569</v>
+        <v>143.57142857142856</v>
       </c>
       <c r="D209" s="13" t="str">
         <f>IF(Step1_GenProfile!H225, ","&amp;itp&amp; IF(Step1_GenProfile!M225,"}};","},"), "")</f>
@@ -39322,11 +39322,11 @@
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H226, "{"&amp;Step1_GenProfile!J226&amp;",","")</f>
-        <v>{5.07017857142856,</v>
+        <v>{5.08512499999999,</v>
       </c>
       <c r="C210" s="13">
         <f ca="1">IF(Step1_GenProfile!H226, Step1_GenProfile!I226*60,"")</f>
-        <v>130.71428571428567</v>
+        <v>139.49999999999994</v>
       </c>
       <c r="D210" s="13" t="str">
         <f>IF(Step1_GenProfile!H226, ","&amp;itp&amp; IF(Step1_GenProfile!M226,"}};","},"), "")</f>
@@ -39337,11 +39337,11 @@
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H227, "{"&amp;Step1_GenProfile!J227&amp;",","")</f>
-        <v>{5.09158928571428,</v>
+        <v>{5.10801785714285,</v>
       </c>
       <c r="C211" s="13">
         <f ca="1">IF(Step1_GenProfile!H227, Step1_GenProfile!I227*60,"")</f>
-        <v>126.21428571428569</v>
+        <v>135.21428571428569</v>
       </c>
       <c r="D211" s="13" t="str">
         <f>IF(Step1_GenProfile!H227, ","&amp;itp&amp; IF(Step1_GenProfile!M227,"}};","},"), "")</f>
@@ -39352,11 +39352,11 @@
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H228, "{"&amp;Step1_GenProfile!J228&amp;",","")</f>
-        <v>{5.11224999999999,</v>
+        <v>{5.13017857142856,</v>
       </c>
       <c r="C212" s="13">
         <f ca="1">IF(Step1_GenProfile!H228, Step1_GenProfile!I228*60,"")</f>
-        <v>121.71428571428565</v>
+        <v>130.71428571428567</v>
       </c>
       <c r="D212" s="13" t="str">
         <f>IF(Step1_GenProfile!H228, ","&amp;itp&amp; IF(Step1_GenProfile!M228,"}};","},"), "")</f>
@@ -39367,11 +39367,11 @@
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H229, "{"&amp;Step1_GenProfile!J229&amp;",","")</f>
-        <v>{5.13216071428571,</v>
+        <v>{5.15158928571428,</v>
       </c>
       <c r="C213" s="13">
         <f ca="1">IF(Step1_GenProfile!H229, Step1_GenProfile!I229*60,"")</f>
-        <v>117.21428571428565</v>
+        <v>126.21428571428569</v>
       </c>
       <c r="D213" s="13" t="str">
         <f>IF(Step1_GenProfile!H229, ","&amp;itp&amp; IF(Step1_GenProfile!M229,"}};","},"), "")</f>
@@ -39382,11 +39382,11 @@
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H230, "{"&amp;Step1_GenProfile!J230&amp;",","")</f>
-        <v>{5.15132142857142,</v>
+        <v>{5.17224999999999,</v>
       </c>
       <c r="C214" s="13">
         <f ca="1">IF(Step1_GenProfile!H230, Step1_GenProfile!I230*60,"")</f>
-        <v>112.71428571428564</v>
+        <v>121.71428571428565</v>
       </c>
       <c r="D214" s="13" t="str">
         <f>IF(Step1_GenProfile!H230, ","&amp;itp&amp; IF(Step1_GenProfile!M230,"}};","},"), "")</f>
@@ -39397,11 +39397,11 @@
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H231, "{"&amp;Step1_GenProfile!J231&amp;",","")</f>
-        <v>{5.16973214285713,</v>
+        <v>{5.19216071428571,</v>
       </c>
       <c r="C215" s="13">
         <f ca="1">IF(Step1_GenProfile!H231, Step1_GenProfile!I231*60,"")</f>
-        <v>108.21428571428565</v>
+        <v>117.21428571428565</v>
       </c>
       <c r="D215" s="13" t="str">
         <f>IF(Step1_GenProfile!H231, ","&amp;itp&amp; IF(Step1_GenProfile!M231,"}};","},"), "")</f>
@@ -39412,11 +39412,11 @@
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H232, "{"&amp;Step1_GenProfile!J232&amp;",","")</f>
-        <v>{5.18739285714285,</v>
+        <v>{5.21132142857142,</v>
       </c>
       <c r="C216" s="13">
         <f ca="1">IF(Step1_GenProfile!H232, Step1_GenProfile!I232*60,"")</f>
-        <v>103.71428571428567</v>
+        <v>112.71428571428564</v>
       </c>
       <c r="D216" s="13" t="str">
         <f>IF(Step1_GenProfile!H232, ","&amp;itp&amp; IF(Step1_GenProfile!M232,"}};","},"), "")</f>
@@ -39427,11 +39427,11 @@
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H233, "{"&amp;Step1_GenProfile!J233&amp;",","")</f>
-        <v>{5.20430357142856,</v>
+        <v>{5.22973214285713,</v>
       </c>
       <c r="C217" s="13">
         <f ca="1">IF(Step1_GenProfile!H233, Step1_GenProfile!I233*60,"")</f>
-        <v>99.214285714285637</v>
+        <v>108.21428571428565</v>
       </c>
       <c r="D217" s="13" t="str">
         <f>IF(Step1_GenProfile!H233, ","&amp;itp&amp; IF(Step1_GenProfile!M233,"}};","},"), "")</f>
@@ -39442,11 +39442,11 @@
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H234, "{"&amp;Step1_GenProfile!J234&amp;",","")</f>
-        <v>{5.22046428571428,</v>
+        <v>{5.24739285714285,</v>
       </c>
       <c r="C218" s="13">
         <f ca="1">IF(Step1_GenProfile!H234, Step1_GenProfile!I234*60,"")</f>
-        <v>94.714285714285637</v>
+        <v>103.71428571428567</v>
       </c>
       <c r="D218" s="13" t="str">
         <f>IF(Step1_GenProfile!H234, ","&amp;itp&amp; IF(Step1_GenProfile!M234,"}};","},"), "")</f>
@@ -39457,11 +39457,11 @@
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H235, "{"&amp;Step1_GenProfile!J235&amp;",","")</f>
-        <v>{5.23587499999999,</v>
+        <v>{5.26430357142856,</v>
       </c>
       <c r="C219" s="13">
         <f ca="1">IF(Step1_GenProfile!H235, Step1_GenProfile!I235*60,"")</f>
-        <v>90.214285714285609</v>
+        <v>99.214285714285637</v>
       </c>
       <c r="D219" s="13" t="str">
         <f>IF(Step1_GenProfile!H235, ","&amp;itp&amp; IF(Step1_GenProfile!M235,"}};","},"), "")</f>
@@ -39472,11 +39472,11 @@
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H236, "{"&amp;Step1_GenProfile!J236&amp;",","")</f>
-        <v>{5.25053571428571,</v>
+        <v>{5.28046428571428,</v>
       </c>
       <c r="C220" s="13">
         <f ca="1">IF(Step1_GenProfile!H236, Step1_GenProfile!I236*60,"")</f>
-        <v>85.714285714285637</v>
+        <v>94.714285714285637</v>
       </c>
       <c r="D220" s="13" t="str">
         <f>IF(Step1_GenProfile!H236, ","&amp;itp&amp; IF(Step1_GenProfile!M236,"}};","},"), "")</f>
@@ -39487,11 +39487,11 @@
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H237, "{"&amp;Step1_GenProfile!J237&amp;",","")</f>
-        <v>{5.26444642857142,</v>
+        <v>{5.29587499999999,</v>
       </c>
       <c r="C221" s="13">
         <f ca="1">IF(Step1_GenProfile!H237, Step1_GenProfile!I237*60,"")</f>
-        <v>81.214285714285637</v>
+        <v>90.214285714285609</v>
       </c>
       <c r="D221" s="13" t="str">
         <f>IF(Step1_GenProfile!H237, ","&amp;itp&amp; IF(Step1_GenProfile!M237,"}};","},"), "")</f>
@@ -39502,11 +39502,11 @@
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H238, "{"&amp;Step1_GenProfile!J238&amp;",","")</f>
-        <v>{5.27760714285713,</v>
+        <v>{5.31053571428571,</v>
       </c>
       <c r="C222" s="13">
         <f ca="1">IF(Step1_GenProfile!H238, Step1_GenProfile!I238*60,"")</f>
-        <v>76.714285714285623</v>
+        <v>85.714285714285637</v>
       </c>
       <c r="D222" s="13" t="str">
         <f>IF(Step1_GenProfile!H238, ","&amp;itp&amp; IF(Step1_GenProfile!M238,"}};","},"), "")</f>
@@ -39517,11 +39517,11 @@
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H239, "{"&amp;Step1_GenProfile!J239&amp;",","")</f>
-        <v>{5.29001785714285,</v>
+        <v>{5.32444642857142,</v>
       </c>
       <c r="C223" s="13">
         <f ca="1">IF(Step1_GenProfile!H239, Step1_GenProfile!I239*60,"")</f>
-        <v>72.214285714285623</v>
+        <v>81.214285714285637</v>
       </c>
       <c r="D223" s="13" t="str">
         <f>IF(Step1_GenProfile!H239, ","&amp;itp&amp; IF(Step1_GenProfile!M239,"}};","},"), "")</f>
@@ -39532,11 +39532,11 @@
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H240, "{"&amp;Step1_GenProfile!J240&amp;",","")</f>
-        <v>{5.30167857142856,</v>
+        <v>{5.33760714285713,</v>
       </c>
       <c r="C224" s="13">
         <f ca="1">IF(Step1_GenProfile!H240, Step1_GenProfile!I240*60,"")</f>
-        <v>67.714285714285623</v>
+        <v>76.714285714285623</v>
       </c>
       <c r="D224" s="13" t="str">
         <f>IF(Step1_GenProfile!H240, ","&amp;itp&amp; IF(Step1_GenProfile!M240,"}};","},"), "")</f>
@@ -39547,11 +39547,11 @@
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H241, "{"&amp;Step1_GenProfile!J241&amp;",","")</f>
-        <v>{5.31258928571428,</v>
+        <v>{5.35001785714285,</v>
       </c>
       <c r="C225" s="13">
         <f ca="1">IF(Step1_GenProfile!H241, Step1_GenProfile!I241*60,"")</f>
-        <v>63.214285714285623</v>
+        <v>72.214285714285623</v>
       </c>
       <c r="D225" s="13" t="str">
         <f>IF(Step1_GenProfile!H241, ","&amp;itp&amp; IF(Step1_GenProfile!M241,"}};","},"), "")</f>
@@ -39562,11 +39562,11 @@
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H242, "{"&amp;Step1_GenProfile!J242&amp;",","")</f>
-        <v>{5.32274999999999,</v>
+        <v>{5.36167857142856,</v>
       </c>
       <c r="C226" s="13">
         <f ca="1">IF(Step1_GenProfile!H242, Step1_GenProfile!I242*60,"")</f>
-        <v>58.714285714285609</v>
+        <v>67.714285714285623</v>
       </c>
       <c r="D226" s="13" t="str">
         <f>IF(Step1_GenProfile!H242, ","&amp;itp&amp; IF(Step1_GenProfile!M242,"}};","},"), "")</f>
@@ -39577,11 +39577,11 @@
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H243, "{"&amp;Step1_GenProfile!J243&amp;",","")</f>
-        <v>{5.3321607142857,</v>
+        <v>{5.37258928571428,</v>
       </c>
       <c r="C227" s="13">
         <f ca="1">IF(Step1_GenProfile!H243, Step1_GenProfile!I243*60,"")</f>
-        <v>54.214285714285623</v>
+        <v>63.214285714285623</v>
       </c>
       <c r="D227" s="13" t="str">
         <f>IF(Step1_GenProfile!H243, ","&amp;itp&amp; IF(Step1_GenProfile!M243,"}};","},"), "")</f>
@@ -39592,11 +39592,11 @@
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H244, "{"&amp;Step1_GenProfile!J244&amp;",","")</f>
-        <v>{5.34082142857142,</v>
+        <v>{5.38274999999999,</v>
       </c>
       <c r="C228" s="13">
         <f ca="1">IF(Step1_GenProfile!H244, Step1_GenProfile!I244*60,"")</f>
-        <v>49.714285714285616</v>
+        <v>58.714285714285609</v>
       </c>
       <c r="D228" s="13" t="str">
         <f>IF(Step1_GenProfile!H244, ","&amp;itp&amp; IF(Step1_GenProfile!M244,"}};","},"), "")</f>
@@ -39607,11 +39607,11 @@
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H245, "{"&amp;Step1_GenProfile!J245&amp;",","")</f>
-        <v>{5.34873214285713,</v>
+        <v>{5.3921607142857,</v>
       </c>
       <c r="C229" s="13">
         <f ca="1">IF(Step1_GenProfile!H245, Step1_GenProfile!I245*60,"")</f>
-        <v>45.214285714285616</v>
+        <v>54.214285714285623</v>
       </c>
       <c r="D229" s="13" t="str">
         <f>IF(Step1_GenProfile!H245, ","&amp;itp&amp; IF(Step1_GenProfile!M245,"}};","},"), "")</f>
@@ -39622,14 +39622,14 @@
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H246, "{"&amp;Step1_GenProfile!J246&amp;",","")</f>
-        <v>{5.35589285714285,</v>
+        <v>{5.40082142857142,</v>
       </c>
       <c r="C230" s="13">
         <f ca="1">IF(Step1_GenProfile!H246, Step1_GenProfile!I246*60,"")</f>
-        <v>40.714285714285623</v>
+        <v>49.714285714285616</v>
       </c>
       <c r="D230" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H246, ","&amp;itp&amp; IF(Step1_GenProfile!M246,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H246, ","&amp;itp&amp; IF(Step1_GenProfile!M246,"}};","},"), "")</f>
         <v>,10},</v>
       </c>
     </row>
@@ -39637,14 +39637,14 @@
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H247, "{"&amp;Step1_GenProfile!J247&amp;",","")</f>
-        <v>{5.36233928571427,</v>
+        <v>{5.40873214285713,</v>
       </c>
       <c r="C231" s="13">
         <f ca="1">IF(Step1_GenProfile!H247, Step1_GenProfile!I247*60,"")</f>
-        <v>36.642857142857068</v>
+        <v>45.214285714285616</v>
       </c>
       <c r="D231" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H247, ","&amp;itp&amp; IF(Step1_GenProfile!M247,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H247, ","&amp;itp&amp; IF(Step1_GenProfile!M247,"}};","},"), "")</f>
         <v>,10},</v>
       </c>
     </row>
@@ -39652,11 +39652,11 @@
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, "{"&amp;Step1_GenProfile!J248&amp;",","")</f>
-        <v>{5.36812499999999,</v>
+        <v>{5.41589285714285,</v>
       </c>
       <c r="C232" s="13">
         <f ca="1">IF(Step1_GenProfile!H248, Step1_GenProfile!I248*60,"")</f>
-        <v>32.785714285714192</v>
+        <v>40.714285714285623</v>
       </c>
       <c r="D232" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, ","&amp;itp&amp; IF(Step1_GenProfile!M248,"}};","},"), "")</f>
@@ -39667,11 +39667,11 @@
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, "{"&amp;Step1_GenProfile!J249&amp;",","")</f>
-        <v>{5.3732857142857,</v>
+        <v>{5.42233928571428,</v>
       </c>
       <c r="C233" s="13">
         <f ca="1">IF(Step1_GenProfile!H249, Step1_GenProfile!I249*60,"")</f>
-        <v>29.142857142857061</v>
+        <v>36.642857142857068</v>
       </c>
       <c r="D233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, ","&amp;itp&amp; IF(Step1_GenProfile!M249,"}};","},"), "")</f>
@@ -39682,11 +39682,11 @@
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, "{"&amp;Step1_GenProfile!J250&amp;",","")</f>
-        <v>{5.37785714285713,</v>
+        <v>{5.42812499999999,</v>
       </c>
       <c r="C234" s="13">
         <f ca="1">IF(Step1_GenProfile!H250, Step1_GenProfile!I250*60,"")</f>
-        <v>25.714285714285634</v>
+        <v>32.785714285714192</v>
       </c>
       <c r="D234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, ","&amp;itp&amp; IF(Step1_GenProfile!M250,"}};","},"), "")</f>
@@ -39697,11 +39697,11 @@
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, "{"&amp;Step1_GenProfile!J251&amp;",","")</f>
-        <v>{5.38187499999999,</v>
+        <v>{5.4332857142857,</v>
       </c>
       <c r="C235" s="13">
         <f ca="1">IF(Step1_GenProfile!H251, Step1_GenProfile!I251*60,"")</f>
-        <v>22.499999999999925</v>
+        <v>29.142857142857061</v>
       </c>
       <c r="D235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, ","&amp;itp&amp; IF(Step1_GenProfile!M251,"}};","},"), "")</f>
@@ -39712,11 +39712,11 @@
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, "{"&amp;Step1_GenProfile!J252&amp;",","")</f>
-        <v>{5.38537499999999,</v>
+        <v>{5.43785714285713,</v>
       </c>
       <c r="C236" s="13">
         <f ca="1">IF(Step1_GenProfile!H252, Step1_GenProfile!I252*60,"")</f>
-        <v>19.499999999999929</v>
+        <v>25.714285714285634</v>
       </c>
       <c r="D236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, ","&amp;itp&amp; IF(Step1_GenProfile!M252,"}};","},"), "")</f>
@@ -39727,11 +39727,11 @@
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, "{"&amp;Step1_GenProfile!J253&amp;",","")</f>
-        <v>{5.38839285714285,</v>
+        <v>{5.44187499999999,</v>
       </c>
       <c r="C237" s="13">
         <f ca="1">IF(Step1_GenProfile!H253, Step1_GenProfile!I253*60,"")</f>
-        <v>16.714285714285648</v>
+        <v>22.499999999999925</v>
       </c>
       <c r="D237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, ","&amp;itp&amp; IF(Step1_GenProfile!M253,"}};","},"), "")</f>
@@ -39742,11 +39742,11 @@
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, "{"&amp;Step1_GenProfile!J254&amp;",","")</f>
-        <v>{5.39096428571427,</v>
+        <v>{5.44537499999999,</v>
       </c>
       <c r="C238" s="13">
         <f ca="1">IF(Step1_GenProfile!H254, Step1_GenProfile!I254*60,"")</f>
-        <v>14.142857142857086</v>
+        <v>19.499999999999929</v>
       </c>
       <c r="D238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, ","&amp;itp&amp; IF(Step1_GenProfile!M254,"}};","},"), "")</f>
@@ -39757,11 +39757,11 @@
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, "{"&amp;Step1_GenProfile!J255&amp;",","")</f>
-        <v>{5.39312499999999,</v>
+        <v>{5.44839285714285,</v>
       </c>
       <c r="C239" s="13">
         <f ca="1">IF(Step1_GenProfile!H255, Step1_GenProfile!I255*60,"")</f>
-        <v>11.785714285714231</v>
+        <v>16.714285714285648</v>
       </c>
       <c r="D239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, ","&amp;itp&amp; IF(Step1_GenProfile!M255,"}};","},"), "")</f>
@@ -39772,11 +39772,11 @@
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, "{"&amp;Step1_GenProfile!J256&amp;",","")</f>
-        <v>{5.3949107142857,</v>
+        <v>{5.45096428571428,</v>
       </c>
       <c r="C240" s="13">
         <f ca="1">IF(Step1_GenProfile!H256, Step1_GenProfile!I256*60,"")</f>
-        <v>9.6428571428570962</v>
+        <v>14.142857142857086</v>
       </c>
       <c r="D240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, ","&amp;itp&amp; IF(Step1_GenProfile!M256,"}};","},"), "")</f>
@@ -39787,11 +39787,11 @@
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, "{"&amp;Step1_GenProfile!J257&amp;",","")</f>
-        <v>{5.39635714285713,</v>
+        <v>{5.45312499999999,</v>
       </c>
       <c r="C241" s="13">
         <f ca="1">IF(Step1_GenProfile!H257, Step1_GenProfile!I257*60,"")</f>
-        <v>7.7142857142856718</v>
+        <v>11.785714285714231</v>
       </c>
       <c r="D241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, ","&amp;itp&amp; IF(Step1_GenProfile!M257,"}};","},"), "")</f>
@@ -39802,11 +39802,11 @@
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, "{"&amp;Step1_GenProfile!J258&amp;",","")</f>
-        <v>{5.39749999999999,</v>
+        <v>{5.4549107142857,</v>
       </c>
       <c r="C242" s="13">
         <f ca="1">IF(Step1_GenProfile!H258, Step1_GenProfile!I258*60,"")</f>
-        <v>5.9999999999999618</v>
+        <v>9.6428571428570962</v>
       </c>
       <c r="D242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, ","&amp;itp&amp; IF(Step1_GenProfile!M258,"}};","},"), "")</f>
@@ -39817,11 +39817,11 @@
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, "{"&amp;Step1_GenProfile!J259&amp;",","")</f>
-        <v>{5.39837499999999,</v>
+        <v>{5.45635714285713,</v>
       </c>
       <c r="C243" s="13">
         <f ca="1">IF(Step1_GenProfile!H259, Step1_GenProfile!I259*60,"")</f>
-        <v>4.4999999999999689</v>
+        <v>7.7142857142856718</v>
       </c>
       <c r="D243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, ","&amp;itp&amp; IF(Step1_GenProfile!M259,"}};","},"), "")</f>
@@ -39832,11 +39832,11 @@
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, "{"&amp;Step1_GenProfile!J260&amp;",","")</f>
-        <v>{5.39901785714285,</v>
+        <v>{5.45749999999999,</v>
       </c>
       <c r="C244" s="13">
         <f ca="1">IF(Step1_GenProfile!H260, Step1_GenProfile!I260*60,"")</f>
-        <v>3.2142857142856878</v>
+        <v>5.9999999999999618</v>
       </c>
       <c r="D244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, ","&amp;itp&amp; IF(Step1_GenProfile!M260,"}};","},"), "")</f>
@@ -39847,11 +39847,11 @@
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, "{"&amp;Step1_GenProfile!J261&amp;",","")</f>
-        <v>{5.39946428571427,</v>
+        <v>{5.45837499999999,</v>
       </c>
       <c r="C245" s="13">
         <f ca="1">IF(Step1_GenProfile!H261, Step1_GenProfile!I261*60,"")</f>
-        <v>2.1428571428571224</v>
+        <v>4.4999999999999689</v>
       </c>
       <c r="D245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, ","&amp;itp&amp; IF(Step1_GenProfile!M261,"}};","},"), "")</f>
@@ -39862,11 +39862,11 @@
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, "{"&amp;Step1_GenProfile!J262&amp;",","")</f>
-        <v>{5.39974999999999,</v>
+        <v>{5.45901785714285,</v>
       </c>
       <c r="C246" s="13">
         <f ca="1">IF(Step1_GenProfile!H262, Step1_GenProfile!I262*60,"")</f>
-        <v>1.2857142857142703</v>
+        <v>3.2142857142856878</v>
       </c>
       <c r="D246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, ","&amp;itp&amp; IF(Step1_GenProfile!M262,"}};","},"), "")</f>
@@ -39877,11 +39877,11 @@
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, "{"&amp;Step1_GenProfile!J263&amp;",","")</f>
-        <v>{5.3999107142857,</v>
+        <v>{5.45946428571427,</v>
       </c>
       <c r="C247" s="13">
         <f ca="1">IF(Step1_GenProfile!H263, Step1_GenProfile!I263*60,"")</f>
-        <v>0.64285714285713247</v>
+        <v>2.1428571428571224</v>
       </c>
       <c r="D247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, ","&amp;itp&amp; IF(Step1_GenProfile!M263,"}};","},"), "")</f>
@@ -39892,11 +39892,11 @@
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, "{"&amp;Step1_GenProfile!J264&amp;",","")</f>
-        <v>{5.39998214285713,</v>
+        <v>{5.45974999999999,</v>
       </c>
       <c r="C248" s="13">
         <f ca="1">IF(Step1_GenProfile!H264, Step1_GenProfile!I264*60,"")</f>
-        <v>0.21428571428570911</v>
+        <v>1.2857142857142703</v>
       </c>
       <c r="D248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, ","&amp;itp&amp; IF(Step1_GenProfile!M264,"}};","},"), "")</f>
@@ -39907,45 +39907,45 @@
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, "{"&amp;Step1_GenProfile!J265&amp;",","")</f>
-        <v>{5.39999999999999,</v>
+        <v>{5.4599107142857,</v>
       </c>
       <c r="C249" s="13">
         <f ca="1">IF(Step1_GenProfile!H265, Step1_GenProfile!I265*60,"")</f>
-        <v>0</v>
+        <v>0.64285714285713247</v>
       </c>
       <c r="D249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, ","&amp;itp&amp; IF(Step1_GenProfile!M265,"}};","},"), "")</f>
-        <v>,10}};</v>
+        <v>,10},</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, "{"&amp;Step1_GenProfile!J266&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="C250" s="13" t="str">
+        <v>{5.45998214285713,</v>
+      </c>
+      <c r="C250" s="13">
         <f ca="1">IF(Step1_GenProfile!H266, Step1_GenProfile!I266*60,"")</f>
-        <v/>
+        <v>0.21428571428570911</v>
       </c>
       <c r="D250" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, ","&amp;itp&amp; IF(Step1_GenProfile!M266,"}};","},"), "")</f>
-        <v/>
+        <v>,10},</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, "{"&amp;Step1_GenProfile!J267&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="C251" s="13" t="str">
+        <v>{5.45999999999999,</v>
+      </c>
+      <c r="C251" s="13">
         <f ca="1">IF(Step1_GenProfile!H267, Step1_GenProfile!I267*60,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D251" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, ","&amp;itp&amp; IF(Step1_GenProfile!M267,"}};","},"), "")</f>
-        <v/>
+        <v>,10}};</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="13" x14ac:dyDescent="0.3">
@@ -42454,7 +42454,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="str">
         <f ca="1">"public const uint kNumPoints = " &amp; COUNT(C10:C1205) &amp; ";"</f>
-        <v>public const uint kNumPoints = 240;</v>
+        <v>public const uint kNumPoints = 242;</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -45205,11 +45205,11 @@
       <c r="A192" s="13"/>
       <c r="B192" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H207, "new double[]{"&amp;Step1_GenProfile!J207&amp;",","")</f>
-        <v>new double[]{4.55853571428571,</v>
+        <v>new double[]{4.55857142857142,</v>
       </c>
       <c r="C192" s="13">
         <f ca="1">IF(Step1_GenProfile!H207, Step1_GenProfile!I207*60,"")</f>
-        <v>179.57142857142861</v>
+        <v>180</v>
       </c>
       <c r="D192" s="13" t="str">
         <f>IF(Step1_GenProfile!H207, IF(Step1_GenProfile!M207,"}};","},"), "")</f>
@@ -45220,11 +45220,11 @@
       <c r="A193" s="13"/>
       <c r="B193" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H208, "new double[]{"&amp;Step1_GenProfile!J208&amp;",","")</f>
-        <v>new double[]{4.58841071428571,</v>
+        <v>new double[]{4.58857142857142,</v>
       </c>
       <c r="C193" s="13">
         <f ca="1">IF(Step1_GenProfile!H208, Step1_GenProfile!I208*60,"")</f>
-        <v>178.92857142857144</v>
+        <v>180</v>
       </c>
       <c r="D193" s="13" t="str">
         <f>IF(Step1_GenProfile!H208, IF(Step1_GenProfile!M208,"}};","},"), "")</f>
@@ -45235,11 +45235,11 @@
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H209, "new double[]{"&amp;Step1_GenProfile!J209&amp;",","")</f>
-        <v>new double[]{4.61816071428571,</v>
+        <v>new double[]{4.61853571428571,</v>
       </c>
       <c r="C194" s="13">
         <f ca="1">IF(Step1_GenProfile!H209, Step1_GenProfile!I209*60,"")</f>
-        <v>178.07142857142861</v>
+        <v>179.57142857142861</v>
       </c>
       <c r="D194" s="13" t="str">
         <f>IF(Step1_GenProfile!H209, IF(Step1_GenProfile!M209,"}};","},"), "")</f>
@@ -45250,11 +45250,11 @@
       <c r="A195" s="13"/>
       <c r="B195" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H210, "new double[]{"&amp;Step1_GenProfile!J210&amp;",","")</f>
-        <v>new double[]{4.64774999999999,</v>
+        <v>new double[]{4.64841071428571,</v>
       </c>
       <c r="C195" s="13">
         <f ca="1">IF(Step1_GenProfile!H210, Step1_GenProfile!I210*60,"")</f>
-        <v>176.99999999999997</v>
+        <v>178.92857142857144</v>
       </c>
       <c r="D195" s="13" t="str">
         <f>IF(Step1_GenProfile!H210, IF(Step1_GenProfile!M210,"}};","},"), "")</f>
@@ -45265,11 +45265,11 @@
       <c r="A196" s="13"/>
       <c r="B196" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H211, "new double[]{"&amp;Step1_GenProfile!J211&amp;",","")</f>
-        <v>new double[]{4.67714285714285,</v>
+        <v>new double[]{4.67816071428571,</v>
       </c>
       <c r="C196" s="13">
         <f ca="1">IF(Step1_GenProfile!H211, Step1_GenProfile!I211*60,"")</f>
-        <v>175.71428571428569</v>
+        <v>178.07142857142861</v>
       </c>
       <c r="D196" s="13" t="str">
         <f>IF(Step1_GenProfile!H211, IF(Step1_GenProfile!M211,"}};","},"), "")</f>
@@ -45280,11 +45280,11 @@
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H212, "new double[]{"&amp;Step1_GenProfile!J212&amp;",","")</f>
-        <v>new double[]{4.70630357142856,</v>
+        <v>new double[]{4.70774999999999,</v>
       </c>
       <c r="C197" s="13">
         <f ca="1">IF(Step1_GenProfile!H212, Step1_GenProfile!I212*60,"")</f>
-        <v>174.21428571428572</v>
+        <v>176.99999999999997</v>
       </c>
       <c r="D197" s="13" t="str">
         <f>IF(Step1_GenProfile!H212, IF(Step1_GenProfile!M212,"}};","},"), "")</f>
@@ -45295,11 +45295,11 @@
       <c r="A198" s="13"/>
       <c r="B198" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H213, "new double[]{"&amp;Step1_GenProfile!J213&amp;",","")</f>
-        <v>new double[]{4.73519642857142,</v>
+        <v>new double[]{4.73714285714285,</v>
       </c>
       <c r="C198" s="13">
         <f ca="1">IF(Step1_GenProfile!H213, Step1_GenProfile!I213*60,"")</f>
-        <v>172.5</v>
+        <v>175.71428571428569</v>
       </c>
       <c r="D198" s="13" t="str">
         <f>IF(Step1_GenProfile!H213, IF(Step1_GenProfile!M213,"}};","},"), "")</f>
@@ -45310,11 +45310,11 @@
       <c r="A199" s="13"/>
       <c r="B199" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H214, "new double[]{"&amp;Step1_GenProfile!J214&amp;",","")</f>
-        <v>new double[]{4.7637857142857,</v>
+        <v>new double[]{4.76630357142856,</v>
       </c>
       <c r="C199" s="13">
         <f ca="1">IF(Step1_GenProfile!H214, Step1_GenProfile!I214*60,"")</f>
-        <v>170.57142857142858</v>
+        <v>174.21428571428572</v>
       </c>
       <c r="D199" s="13" t="str">
         <f>IF(Step1_GenProfile!H214, IF(Step1_GenProfile!M214,"}};","},"), "")</f>
@@ -45325,11 +45325,11 @@
       <c r="A200" s="13"/>
       <c r="B200" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H215, "new double[]{"&amp;Step1_GenProfile!J215&amp;",","")</f>
-        <v>new double[]{4.7920357142857,</v>
+        <v>new double[]{4.79519642857142,</v>
       </c>
       <c r="C200" s="13">
         <f ca="1">IF(Step1_GenProfile!H215, Step1_GenProfile!I215*60,"")</f>
-        <v>168.42857142857142</v>
+        <v>172.5</v>
       </c>
       <c r="D200" s="13" t="str">
         <f>IF(Step1_GenProfile!H215, IF(Step1_GenProfile!M215,"}};","},"), "")</f>
@@ -45340,11 +45340,11 @@
       <c r="A201" s="13"/>
       <c r="B201" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H216, "new double[]{"&amp;Step1_GenProfile!J216&amp;",","")</f>
-        <v>new double[]{4.8199107142857,</v>
+        <v>new double[]{4.82378571428571,</v>
       </c>
       <c r="C201" s="13">
         <f ca="1">IF(Step1_GenProfile!H216, Step1_GenProfile!I216*60,"")</f>
-        <v>166.07142857142858</v>
+        <v>170.57142857142858</v>
       </c>
       <c r="D201" s="13" t="str">
         <f>IF(Step1_GenProfile!H216, IF(Step1_GenProfile!M216,"}};","},"), "")</f>
@@ -45355,11 +45355,11 @@
       <c r="A202" s="13"/>
       <c r="B202" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H217, "new double[]{"&amp;Step1_GenProfile!J217&amp;",","")</f>
-        <v>new double[]{4.84737499999999,</v>
+        <v>new double[]{4.85203571428571,</v>
       </c>
       <c r="C202" s="13">
         <f ca="1">IF(Step1_GenProfile!H217, Step1_GenProfile!I217*60,"")</f>
-        <v>163.5</v>
+        <v>168.42857142857142</v>
       </c>
       <c r="D202" s="13" t="str">
         <f>IF(Step1_GenProfile!H217, IF(Step1_GenProfile!M217,"}};","},"), "")</f>
@@ -45370,11 +45370,11 @@
       <c r="A203" s="13"/>
       <c r="B203" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H218, "new double[]{"&amp;Step1_GenProfile!J218&amp;",","")</f>
-        <v>new double[]{4.87439285714285,</v>
+        <v>new double[]{4.8799107142857,</v>
       </c>
       <c r="C203" s="13">
         <f ca="1">IF(Step1_GenProfile!H218, Step1_GenProfile!I218*60,"")</f>
-        <v>160.71428571428567</v>
+        <v>166.07142857142858</v>
       </c>
       <c r="D203" s="13" t="str">
         <f>IF(Step1_GenProfile!H218, IF(Step1_GenProfile!M218,"}};","},"), "")</f>
@@ -45385,11 +45385,11 @@
       <c r="A204" s="13"/>
       <c r="B204" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H219, "new double[]{"&amp;Step1_GenProfile!J219&amp;",","")</f>
-        <v>new double[]{4.90092857142856,</v>
+        <v>new double[]{4.90737499999999,</v>
       </c>
       <c r="C204" s="13">
         <f ca="1">IF(Step1_GenProfile!H219, Step1_GenProfile!I219*60,"")</f>
-        <v>157.71428571428569</v>
+        <v>163.5</v>
       </c>
       <c r="D204" s="13" t="str">
         <f>IF(Step1_GenProfile!H219, IF(Step1_GenProfile!M219,"}};","},"), "")</f>
@@ -45400,11 +45400,11 @@
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H220, "new double[]{"&amp;Step1_GenProfile!J220&amp;",","")</f>
-        <v>new double[]{4.92694642857142,</v>
+        <v>new double[]{4.93439285714285,</v>
       </c>
       <c r="C205" s="13">
         <f ca="1">IF(Step1_GenProfile!H220, Step1_GenProfile!I220*60,"")</f>
-        <v>154.49999999999994</v>
+        <v>160.71428571428567</v>
       </c>
       <c r="D205" s="13" t="str">
         <f>IF(Step1_GenProfile!H220, IF(Step1_GenProfile!M220,"}};","},"), "")</f>
@@ -45415,11 +45415,11 @@
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H221, "new double[]{"&amp;Step1_GenProfile!J221&amp;",","")</f>
-        <v>new double[]{4.9524107142857,</v>
+        <v>new double[]{4.96092857142856,</v>
       </c>
       <c r="C206" s="13">
         <f ca="1">IF(Step1_GenProfile!H221, Step1_GenProfile!I221*60,"")</f>
-        <v>151.07142857142856</v>
+        <v>157.71428571428569</v>
       </c>
       <c r="D206" s="13" t="str">
         <f>IF(Step1_GenProfile!H221, IF(Step1_GenProfile!M221,"}};","},"), "")</f>
@@ -45430,11 +45430,11 @@
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H222, "new double[]{"&amp;Step1_GenProfile!J222&amp;",","")</f>
-        <v>new double[]{4.9772857142857,</v>
+        <v>new double[]{4.98694642857142,</v>
       </c>
       <c r="C207" s="13">
         <f ca="1">IF(Step1_GenProfile!H222, Step1_GenProfile!I222*60,"")</f>
-        <v>147.42857142857139</v>
+        <v>154.49999999999994</v>
       </c>
       <c r="D207" s="13" t="str">
         <f>IF(Step1_GenProfile!H222, IF(Step1_GenProfile!M222,"}};","},"), "")</f>
@@ -45445,11 +45445,11 @@
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H223, "new double[]{"&amp;Step1_GenProfile!J223&amp;",","")</f>
-        <v>new double[]{5.0015357142857,</v>
+        <v>new double[]{5.01241071428571,</v>
       </c>
       <c r="C208" s="13">
         <f ca="1">IF(Step1_GenProfile!H223, Step1_GenProfile!I223*60,"")</f>
-        <v>143.57142857142856</v>
+        <v>151.07142857142856</v>
       </c>
       <c r="D208" s="13" t="str">
         <f>IF(Step1_GenProfile!H223, IF(Step1_GenProfile!M223,"}};","},"), "")</f>
@@ -45460,11 +45460,11 @@
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H224, "new double[]{"&amp;Step1_GenProfile!J224&amp;",","")</f>
-        <v>new double[]{5.02512499999999,</v>
+        <v>new double[]{5.03728571428571,</v>
       </c>
       <c r="C209" s="13">
         <f ca="1">IF(Step1_GenProfile!H224, Step1_GenProfile!I224*60,"")</f>
-        <v>139.49999999999994</v>
+        <v>147.42857142857139</v>
       </c>
       <c r="D209" s="13" t="str">
         <f>IF(Step1_GenProfile!H224, IF(Step1_GenProfile!M224,"}};","},"), "")</f>
@@ -45475,11 +45475,11 @@
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H225, "new double[]{"&amp;Step1_GenProfile!J225&amp;",","")</f>
-        <v>new double[]{5.04801785714285,</v>
+        <v>new double[]{5.06153571428571,</v>
       </c>
       <c r="C210" s="13">
         <f ca="1">IF(Step1_GenProfile!H225, Step1_GenProfile!I225*60,"")</f>
-        <v>135.21428571428569</v>
+        <v>143.57142857142856</v>
       </c>
       <c r="D210" s="13" t="str">
         <f>IF(Step1_GenProfile!H225, IF(Step1_GenProfile!M225,"}};","},"), "")</f>
@@ -45490,11 +45490,11 @@
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H226, "new double[]{"&amp;Step1_GenProfile!J226&amp;",","")</f>
-        <v>new double[]{5.07017857142856,</v>
+        <v>new double[]{5.08512499999999,</v>
       </c>
       <c r="C211" s="13">
         <f ca="1">IF(Step1_GenProfile!H226, Step1_GenProfile!I226*60,"")</f>
-        <v>130.71428571428567</v>
+        <v>139.49999999999994</v>
       </c>
       <c r="D211" s="13" t="str">
         <f>IF(Step1_GenProfile!H226, IF(Step1_GenProfile!M226,"}};","},"), "")</f>
@@ -45505,11 +45505,11 @@
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H227, "new double[]{"&amp;Step1_GenProfile!J227&amp;",","")</f>
-        <v>new double[]{5.09158928571428,</v>
+        <v>new double[]{5.10801785714285,</v>
       </c>
       <c r="C212" s="13">
         <f ca="1">IF(Step1_GenProfile!H227, Step1_GenProfile!I227*60,"")</f>
-        <v>126.21428571428569</v>
+        <v>135.21428571428569</v>
       </c>
       <c r="D212" s="13" t="str">
         <f>IF(Step1_GenProfile!H227, IF(Step1_GenProfile!M227,"}};","},"), "")</f>
@@ -45520,11 +45520,11 @@
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H228, "new double[]{"&amp;Step1_GenProfile!J228&amp;",","")</f>
-        <v>new double[]{5.11224999999999,</v>
+        <v>new double[]{5.13017857142856,</v>
       </c>
       <c r="C213" s="13">
         <f ca="1">IF(Step1_GenProfile!H228, Step1_GenProfile!I228*60,"")</f>
-        <v>121.71428571428565</v>
+        <v>130.71428571428567</v>
       </c>
       <c r="D213" s="13" t="str">
         <f>IF(Step1_GenProfile!H228, IF(Step1_GenProfile!M228,"}};","},"), "")</f>
@@ -45535,11 +45535,11 @@
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H229, "new double[]{"&amp;Step1_GenProfile!J229&amp;",","")</f>
-        <v>new double[]{5.13216071428571,</v>
+        <v>new double[]{5.15158928571428,</v>
       </c>
       <c r="C214" s="13">
         <f ca="1">IF(Step1_GenProfile!H229, Step1_GenProfile!I229*60,"")</f>
-        <v>117.21428571428565</v>
+        <v>126.21428571428569</v>
       </c>
       <c r="D214" s="13" t="str">
         <f>IF(Step1_GenProfile!H229, IF(Step1_GenProfile!M229,"}};","},"), "")</f>
@@ -45550,11 +45550,11 @@
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H230, "new double[]{"&amp;Step1_GenProfile!J230&amp;",","")</f>
-        <v>new double[]{5.15132142857142,</v>
+        <v>new double[]{5.17224999999999,</v>
       </c>
       <c r="C215" s="13">
         <f ca="1">IF(Step1_GenProfile!H230, Step1_GenProfile!I230*60,"")</f>
-        <v>112.71428571428564</v>
+        <v>121.71428571428565</v>
       </c>
       <c r="D215" s="13" t="str">
         <f>IF(Step1_GenProfile!H230, IF(Step1_GenProfile!M230,"}};","},"), "")</f>
@@ -45565,11 +45565,11 @@
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H231, "new double[]{"&amp;Step1_GenProfile!J231&amp;",","")</f>
-        <v>new double[]{5.16973214285713,</v>
+        <v>new double[]{5.19216071428571,</v>
       </c>
       <c r="C216" s="13">
         <f ca="1">IF(Step1_GenProfile!H231, Step1_GenProfile!I231*60,"")</f>
-        <v>108.21428571428565</v>
+        <v>117.21428571428565</v>
       </c>
       <c r="D216" s="13" t="str">
         <f>IF(Step1_GenProfile!H231, IF(Step1_GenProfile!M231,"}};","},"), "")</f>
@@ -45580,11 +45580,11 @@
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H232, "new double[]{"&amp;Step1_GenProfile!J232&amp;",","")</f>
-        <v>new double[]{5.18739285714285,</v>
+        <v>new double[]{5.21132142857142,</v>
       </c>
       <c r="C217" s="13">
         <f ca="1">IF(Step1_GenProfile!H232, Step1_GenProfile!I232*60,"")</f>
-        <v>103.71428571428567</v>
+        <v>112.71428571428564</v>
       </c>
       <c r="D217" s="13" t="str">
         <f>IF(Step1_GenProfile!H232, IF(Step1_GenProfile!M232,"}};","},"), "")</f>
@@ -45595,11 +45595,11 @@
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H233, "new double[]{"&amp;Step1_GenProfile!J233&amp;",","")</f>
-        <v>new double[]{5.20430357142856,</v>
+        <v>new double[]{5.22973214285713,</v>
       </c>
       <c r="C218" s="13">
         <f ca="1">IF(Step1_GenProfile!H233, Step1_GenProfile!I233*60,"")</f>
-        <v>99.214285714285637</v>
+        <v>108.21428571428565</v>
       </c>
       <c r="D218" s="13" t="str">
         <f>IF(Step1_GenProfile!H233, IF(Step1_GenProfile!M233,"}};","},"), "")</f>
@@ -45610,11 +45610,11 @@
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H234, "new double[]{"&amp;Step1_GenProfile!J234&amp;",","")</f>
-        <v>new double[]{5.22046428571428,</v>
+        <v>new double[]{5.24739285714285,</v>
       </c>
       <c r="C219" s="13">
         <f ca="1">IF(Step1_GenProfile!H234, Step1_GenProfile!I234*60,"")</f>
-        <v>94.714285714285637</v>
+        <v>103.71428571428567</v>
       </c>
       <c r="D219" s="13" t="str">
         <f>IF(Step1_GenProfile!H234, IF(Step1_GenProfile!M234,"}};","},"), "")</f>
@@ -45625,11 +45625,11 @@
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H235, "new double[]{"&amp;Step1_GenProfile!J235&amp;",","")</f>
-        <v>new double[]{5.23587499999999,</v>
+        <v>new double[]{5.26430357142856,</v>
       </c>
       <c r="C220" s="13">
         <f ca="1">IF(Step1_GenProfile!H235, Step1_GenProfile!I235*60,"")</f>
-        <v>90.214285714285609</v>
+        <v>99.214285714285637</v>
       </c>
       <c r="D220" s="13" t="str">
         <f>IF(Step1_GenProfile!H235, IF(Step1_GenProfile!M235,"}};","},"), "")</f>
@@ -45640,11 +45640,11 @@
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H236, "new double[]{"&amp;Step1_GenProfile!J236&amp;",","")</f>
-        <v>new double[]{5.25053571428571,</v>
+        <v>new double[]{5.28046428571428,</v>
       </c>
       <c r="C221" s="13">
         <f ca="1">IF(Step1_GenProfile!H236, Step1_GenProfile!I236*60,"")</f>
-        <v>85.714285714285637</v>
+        <v>94.714285714285637</v>
       </c>
       <c r="D221" s="13" t="str">
         <f>IF(Step1_GenProfile!H236, IF(Step1_GenProfile!M236,"}};","},"), "")</f>
@@ -45655,11 +45655,11 @@
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H237, "new double[]{"&amp;Step1_GenProfile!J237&amp;",","")</f>
-        <v>new double[]{5.26444642857142,</v>
+        <v>new double[]{5.29587499999999,</v>
       </c>
       <c r="C222" s="13">
         <f ca="1">IF(Step1_GenProfile!H237, Step1_GenProfile!I237*60,"")</f>
-        <v>81.214285714285637</v>
+        <v>90.214285714285609</v>
       </c>
       <c r="D222" s="13" t="str">
         <f>IF(Step1_GenProfile!H237, IF(Step1_GenProfile!M237,"}};","},"), "")</f>
@@ -45670,11 +45670,11 @@
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H238, "new double[]{"&amp;Step1_GenProfile!J238&amp;",","")</f>
-        <v>new double[]{5.27760714285713,</v>
+        <v>new double[]{5.31053571428571,</v>
       </c>
       <c r="C223" s="13">
         <f ca="1">IF(Step1_GenProfile!H238, Step1_GenProfile!I238*60,"")</f>
-        <v>76.714285714285623</v>
+        <v>85.714285714285637</v>
       </c>
       <c r="D223" s="13" t="str">
         <f>IF(Step1_GenProfile!H238, IF(Step1_GenProfile!M238,"}};","},"), "")</f>
@@ -45685,11 +45685,11 @@
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H239, "new double[]{"&amp;Step1_GenProfile!J239&amp;",","")</f>
-        <v>new double[]{5.29001785714285,</v>
+        <v>new double[]{5.32444642857142,</v>
       </c>
       <c r="C224" s="13">
         <f ca="1">IF(Step1_GenProfile!H239, Step1_GenProfile!I239*60,"")</f>
-        <v>72.214285714285623</v>
+        <v>81.214285714285637</v>
       </c>
       <c r="D224" s="13" t="str">
         <f>IF(Step1_GenProfile!H239, IF(Step1_GenProfile!M239,"}};","},"), "")</f>
@@ -45700,11 +45700,11 @@
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H240, "new double[]{"&amp;Step1_GenProfile!J240&amp;",","")</f>
-        <v>new double[]{5.30167857142856,</v>
+        <v>new double[]{5.33760714285713,</v>
       </c>
       <c r="C225" s="13">
         <f ca="1">IF(Step1_GenProfile!H240, Step1_GenProfile!I240*60,"")</f>
-        <v>67.714285714285623</v>
+        <v>76.714285714285623</v>
       </c>
       <c r="D225" s="13" t="str">
         <f>IF(Step1_GenProfile!H240, IF(Step1_GenProfile!M240,"}};","},"), "")</f>
@@ -45715,11 +45715,11 @@
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H241, "new double[]{"&amp;Step1_GenProfile!J241&amp;",","")</f>
-        <v>new double[]{5.31258928571428,</v>
+        <v>new double[]{5.35001785714285,</v>
       </c>
       <c r="C226" s="13">
         <f ca="1">IF(Step1_GenProfile!H241, Step1_GenProfile!I241*60,"")</f>
-        <v>63.214285714285623</v>
+        <v>72.214285714285623</v>
       </c>
       <c r="D226" s="13" t="str">
         <f>IF(Step1_GenProfile!H241, IF(Step1_GenProfile!M241,"}};","},"), "")</f>
@@ -45730,11 +45730,11 @@
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H242, "new double[]{"&amp;Step1_GenProfile!J242&amp;",","")</f>
-        <v>new double[]{5.32274999999999,</v>
+        <v>new double[]{5.36167857142856,</v>
       </c>
       <c r="C227" s="13">
         <f ca="1">IF(Step1_GenProfile!H242, Step1_GenProfile!I242*60,"")</f>
-        <v>58.714285714285609</v>
+        <v>67.714285714285623</v>
       </c>
       <c r="D227" s="13" t="str">
         <f>IF(Step1_GenProfile!H242, IF(Step1_GenProfile!M242,"}};","},"), "")</f>
@@ -45745,11 +45745,11 @@
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H243, "new double[]{"&amp;Step1_GenProfile!J243&amp;",","")</f>
-        <v>new double[]{5.3321607142857,</v>
+        <v>new double[]{5.37258928571428,</v>
       </c>
       <c r="C228" s="13">
         <f ca="1">IF(Step1_GenProfile!H243, Step1_GenProfile!I243*60,"")</f>
-        <v>54.214285714285623</v>
+        <v>63.214285714285623</v>
       </c>
       <c r="D228" s="13" t="str">
         <f>IF(Step1_GenProfile!H243, IF(Step1_GenProfile!M243,"}};","},"), "")</f>
@@ -45760,11 +45760,11 @@
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H244, "new double[]{"&amp;Step1_GenProfile!J244&amp;",","")</f>
-        <v>new double[]{5.34082142857142,</v>
+        <v>new double[]{5.38274999999999,</v>
       </c>
       <c r="C229" s="13">
         <f ca="1">IF(Step1_GenProfile!H244, Step1_GenProfile!I244*60,"")</f>
-        <v>49.714285714285616</v>
+        <v>58.714285714285609</v>
       </c>
       <c r="D229" s="13" t="str">
         <f>IF(Step1_GenProfile!H244, IF(Step1_GenProfile!M244,"}};","},"), "")</f>
@@ -45775,11 +45775,11 @@
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H245, "new double[]{"&amp;Step1_GenProfile!J245&amp;",","")</f>
-        <v>new double[]{5.34873214285713,</v>
+        <v>new double[]{5.3921607142857,</v>
       </c>
       <c r="C230" s="13">
         <f ca="1">IF(Step1_GenProfile!H245, Step1_GenProfile!I245*60,"")</f>
-        <v>45.214285714285616</v>
+        <v>54.214285714285623</v>
       </c>
       <c r="D230" s="13" t="str">
         <f>IF(Step1_GenProfile!H245, IF(Step1_GenProfile!M245,"}};","},"), "")</f>
@@ -45790,14 +45790,14 @@
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H246, "new double[]{"&amp;Step1_GenProfile!J246&amp;",","")</f>
-        <v>new double[]{5.35589285714285,</v>
+        <v>new double[]{5.40082142857142,</v>
       </c>
       <c r="C231" s="13">
         <f ca="1">IF(Step1_GenProfile!H246, Step1_GenProfile!I246*60,"")</f>
-        <v>40.714285714285623</v>
+        <v>49.714285714285616</v>
       </c>
       <c r="D231" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H246, IF(Step1_GenProfile!M246,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H246, IF(Step1_GenProfile!M246,"}};","},"), "")</f>
         <v>},</v>
       </c>
     </row>
@@ -45805,14 +45805,14 @@
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H247, "new double[]{"&amp;Step1_GenProfile!J247&amp;",","")</f>
-        <v>new double[]{5.36233928571427,</v>
+        <v>new double[]{5.40873214285713,</v>
       </c>
       <c r="C232" s="13">
         <f ca="1">IF(Step1_GenProfile!H247, Step1_GenProfile!I247*60,"")</f>
-        <v>36.642857142857068</v>
+        <v>45.214285714285616</v>
       </c>
       <c r="D232" s="13" t="str">
-        <f ca="1">IF(Step1_GenProfile!H247, IF(Step1_GenProfile!M247,"}};","},"), "")</f>
+        <f>IF(Step1_GenProfile!H247, IF(Step1_GenProfile!M247,"}};","},"), "")</f>
         <v>},</v>
       </c>
     </row>
@@ -45820,11 +45820,11 @@
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, "new double[]{"&amp;Step1_GenProfile!J248&amp;",","")</f>
-        <v>new double[]{5.36812499999999,</v>
+        <v>new double[]{5.41589285714285,</v>
       </c>
       <c r="C233" s="13">
         <f ca="1">IF(Step1_GenProfile!H248, Step1_GenProfile!I248*60,"")</f>
-        <v>32.785714285714192</v>
+        <v>40.714285714285623</v>
       </c>
       <c r="D233" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H248, IF(Step1_GenProfile!M248,"}};","},"), "")</f>
@@ -45835,11 +45835,11 @@
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, "new double[]{"&amp;Step1_GenProfile!J249&amp;",","")</f>
-        <v>new double[]{5.3732857142857,</v>
+        <v>new double[]{5.42233928571428,</v>
       </c>
       <c r="C234" s="13">
         <f ca="1">IF(Step1_GenProfile!H249, Step1_GenProfile!I249*60,"")</f>
-        <v>29.142857142857061</v>
+        <v>36.642857142857068</v>
       </c>
       <c r="D234" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H249, IF(Step1_GenProfile!M249,"}};","},"), "")</f>
@@ -45850,11 +45850,11 @@
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, "new double[]{"&amp;Step1_GenProfile!J250&amp;",","")</f>
-        <v>new double[]{5.37785714285713,</v>
+        <v>new double[]{5.42812499999999,</v>
       </c>
       <c r="C235" s="13">
         <f ca="1">IF(Step1_GenProfile!H250, Step1_GenProfile!I250*60,"")</f>
-        <v>25.714285714285634</v>
+        <v>32.785714285714192</v>
       </c>
       <c r="D235" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H250, IF(Step1_GenProfile!M250,"}};","},"), "")</f>
@@ -45865,11 +45865,11 @@
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, "new double[]{"&amp;Step1_GenProfile!J251&amp;",","")</f>
-        <v>new double[]{5.38187499999999,</v>
+        <v>new double[]{5.4332857142857,</v>
       </c>
       <c r="C236" s="13">
         <f ca="1">IF(Step1_GenProfile!H251, Step1_GenProfile!I251*60,"")</f>
-        <v>22.499999999999925</v>
+        <v>29.142857142857061</v>
       </c>
       <c r="D236" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H251, IF(Step1_GenProfile!M251,"}};","},"), "")</f>
@@ -45880,11 +45880,11 @@
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, "new double[]{"&amp;Step1_GenProfile!J252&amp;",","")</f>
-        <v>new double[]{5.38537499999999,</v>
+        <v>new double[]{5.43785714285713,</v>
       </c>
       <c r="C237" s="13">
         <f ca="1">IF(Step1_GenProfile!H252, Step1_GenProfile!I252*60,"")</f>
-        <v>19.499999999999929</v>
+        <v>25.714285714285634</v>
       </c>
       <c r="D237" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H252, IF(Step1_GenProfile!M252,"}};","},"), "")</f>
@@ -45895,11 +45895,11 @@
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, "new double[]{"&amp;Step1_GenProfile!J253&amp;",","")</f>
-        <v>new double[]{5.38839285714285,</v>
+        <v>new double[]{5.44187499999999,</v>
       </c>
       <c r="C238" s="13">
         <f ca="1">IF(Step1_GenProfile!H253, Step1_GenProfile!I253*60,"")</f>
-        <v>16.714285714285648</v>
+        <v>22.499999999999925</v>
       </c>
       <c r="D238" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H253, IF(Step1_GenProfile!M253,"}};","},"), "")</f>
@@ -45910,11 +45910,11 @@
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, "new double[]{"&amp;Step1_GenProfile!J254&amp;",","")</f>
-        <v>new double[]{5.39096428571427,</v>
+        <v>new double[]{5.44537499999999,</v>
       </c>
       <c r="C239" s="13">
         <f ca="1">IF(Step1_GenProfile!H254, Step1_GenProfile!I254*60,"")</f>
-        <v>14.142857142857086</v>
+        <v>19.499999999999929</v>
       </c>
       <c r="D239" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H254, IF(Step1_GenProfile!M254,"}};","},"), "")</f>
@@ -45925,11 +45925,11 @@
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, "new double[]{"&amp;Step1_GenProfile!J255&amp;",","")</f>
-        <v>new double[]{5.39312499999999,</v>
+        <v>new double[]{5.44839285714285,</v>
       </c>
       <c r="C240" s="13">
         <f ca="1">IF(Step1_GenProfile!H255, Step1_GenProfile!I255*60,"")</f>
-        <v>11.785714285714231</v>
+        <v>16.714285714285648</v>
       </c>
       <c r="D240" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H255, IF(Step1_GenProfile!M255,"}};","},"), "")</f>
@@ -45940,11 +45940,11 @@
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, "new double[]{"&amp;Step1_GenProfile!J256&amp;",","")</f>
-        <v>new double[]{5.3949107142857,</v>
+        <v>new double[]{5.45096428571428,</v>
       </c>
       <c r="C241" s="13">
         <f ca="1">IF(Step1_GenProfile!H256, Step1_GenProfile!I256*60,"")</f>
-        <v>9.6428571428570962</v>
+        <v>14.142857142857086</v>
       </c>
       <c r="D241" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H256, IF(Step1_GenProfile!M256,"}};","},"), "")</f>
@@ -45955,11 +45955,11 @@
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, "new double[]{"&amp;Step1_GenProfile!J257&amp;",","")</f>
-        <v>new double[]{5.39635714285713,</v>
+        <v>new double[]{5.45312499999999,</v>
       </c>
       <c r="C242" s="13">
         <f ca="1">IF(Step1_GenProfile!H257, Step1_GenProfile!I257*60,"")</f>
-        <v>7.7142857142856718</v>
+        <v>11.785714285714231</v>
       </c>
       <c r="D242" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H257, IF(Step1_GenProfile!M257,"}};","},"), "")</f>
@@ -45970,11 +45970,11 @@
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, "new double[]{"&amp;Step1_GenProfile!J258&amp;",","")</f>
-        <v>new double[]{5.39749999999999,</v>
+        <v>new double[]{5.4549107142857,</v>
       </c>
       <c r="C243" s="13">
         <f ca="1">IF(Step1_GenProfile!H258, Step1_GenProfile!I258*60,"")</f>
-        <v>5.9999999999999618</v>
+        <v>9.6428571428570962</v>
       </c>
       <c r="D243" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H258, IF(Step1_GenProfile!M258,"}};","},"), "")</f>
@@ -45985,11 +45985,11 @@
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, "new double[]{"&amp;Step1_GenProfile!J259&amp;",","")</f>
-        <v>new double[]{5.39837499999999,</v>
+        <v>new double[]{5.45635714285713,</v>
       </c>
       <c r="C244" s="13">
         <f ca="1">IF(Step1_GenProfile!H259, Step1_GenProfile!I259*60,"")</f>
-        <v>4.4999999999999689</v>
+        <v>7.7142857142856718</v>
       </c>
       <c r="D244" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H259, IF(Step1_GenProfile!M259,"}};","},"), "")</f>
@@ -46000,11 +46000,11 @@
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, "new double[]{"&amp;Step1_GenProfile!J260&amp;",","")</f>
-        <v>new double[]{5.39901785714285,</v>
+        <v>new double[]{5.45749999999999,</v>
       </c>
       <c r="C245" s="13">
         <f ca="1">IF(Step1_GenProfile!H260, Step1_GenProfile!I260*60,"")</f>
-        <v>3.2142857142856878</v>
+        <v>5.9999999999999618</v>
       </c>
       <c r="D245" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H260, IF(Step1_GenProfile!M260,"}};","},"), "")</f>
@@ -46015,11 +46015,11 @@
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, "new double[]{"&amp;Step1_GenProfile!J261&amp;",","")</f>
-        <v>new double[]{5.39946428571427,</v>
+        <v>new double[]{5.45837499999999,</v>
       </c>
       <c r="C246" s="13">
         <f ca="1">IF(Step1_GenProfile!H261, Step1_GenProfile!I261*60,"")</f>
-        <v>2.1428571428571224</v>
+        <v>4.4999999999999689</v>
       </c>
       <c r="D246" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H261, IF(Step1_GenProfile!M261,"}};","},"), "")</f>
@@ -46030,11 +46030,11 @@
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, "new double[]{"&amp;Step1_GenProfile!J262&amp;",","")</f>
-        <v>new double[]{5.39974999999999,</v>
+        <v>new double[]{5.45901785714285,</v>
       </c>
       <c r="C247" s="13">
         <f ca="1">IF(Step1_GenProfile!H262, Step1_GenProfile!I262*60,"")</f>
-        <v>1.2857142857142703</v>
+        <v>3.2142857142856878</v>
       </c>
       <c r="D247" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H262, IF(Step1_GenProfile!M262,"}};","},"), "")</f>
@@ -46045,11 +46045,11 @@
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, "new double[]{"&amp;Step1_GenProfile!J263&amp;",","")</f>
-        <v>new double[]{5.3999107142857,</v>
+        <v>new double[]{5.45946428571427,</v>
       </c>
       <c r="C248" s="13">
         <f ca="1">IF(Step1_GenProfile!H263, Step1_GenProfile!I263*60,"")</f>
-        <v>0.64285714285713247</v>
+        <v>2.1428571428571224</v>
       </c>
       <c r="D248" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H263, IF(Step1_GenProfile!M263,"}};","},"), "")</f>
@@ -46060,11 +46060,11 @@
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, "new double[]{"&amp;Step1_GenProfile!J264&amp;",","")</f>
-        <v>new double[]{5.39998214285713,</v>
+        <v>new double[]{5.45974999999999,</v>
       </c>
       <c r="C249" s="13">
         <f ca="1">IF(Step1_GenProfile!H264, Step1_GenProfile!I264*60,"")</f>
-        <v>0.21428571428570911</v>
+        <v>1.2857142857142703</v>
       </c>
       <c r="D249" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H264, IF(Step1_GenProfile!M264,"}};","},"), "")</f>
@@ -46075,45 +46075,45 @@
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, "new double[]{"&amp;Step1_GenProfile!J265&amp;",","")</f>
-        <v>new double[]{5.39999999999999,</v>
+        <v>new double[]{5.4599107142857,</v>
       </c>
       <c r="C250" s="13">
         <f ca="1">IF(Step1_GenProfile!H265, Step1_GenProfile!I265*60,"")</f>
-        <v>0</v>
+        <v>0.64285714285713247</v>
       </c>
       <c r="D250" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H265, IF(Step1_GenProfile!M265,"}};","},"), "")</f>
-        <v>}};</v>
+        <v>},</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, "new double[]{"&amp;Step1_GenProfile!J266&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="C251" s="13" t="str">
+        <v>new double[]{5.45998214285713,</v>
+      </c>
+      <c r="C251" s="13">
         <f ca="1">IF(Step1_GenProfile!H266, Step1_GenProfile!I266*60,"")</f>
-        <v/>
+        <v>0.21428571428570911</v>
       </c>
       <c r="D251" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H266, IF(Step1_GenProfile!M266,"}};","},"), "")</f>
-        <v/>
+        <v>},</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, "new double[]{"&amp;Step1_GenProfile!J267&amp;",","")</f>
-        <v/>
-      </c>
-      <c r="C252" s="13" t="str">
+        <v>new double[]{5.45999999999999,</v>
+      </c>
+      <c r="C252" s="13">
         <f ca="1">IF(Step1_GenProfile!H267, Step1_GenProfile!I267*60,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D252" s="13" t="str">
         <f ca="1">IF(Step1_GenProfile!H267, IF(Step1_GenProfile!M267,"}};","},"), "")</f>
-        <v/>
+        <v>}};</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="13" x14ac:dyDescent="0.3">
